--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001307640299948</v>
+        <v>1.00113675796516</v>
       </c>
       <c r="D3">
-        <v>0.9953896840496047</v>
+        <v>1.002797874878896</v>
       </c>
       <c r="E3">
-        <v>1.001066432697322</v>
+        <v>0.9975201484286009</v>
       </c>
       <c r="F3">
         <v>1.001307640299948</v>
       </c>
       <c r="G3">
-        <v>1.002797874878896</v>
+        <v>1.001307640299948</v>
       </c>
       <c r="H3">
-        <v>0.9975201484286009</v>
+        <v>0.9953896840496047</v>
       </c>
       <c r="I3">
-        <v>1.00113675796516</v>
+        <v>0.9953896840496047</v>
       </c>
       <c r="J3">
-        <v>0.9953896840496047</v>
+        <v>1.001066432697322</v>
       </c>
       <c r="K3">
         <v>1.001307640299948</v>
@@ -728,7 +680,7 @@
         <v>0.9998697563865884</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002522882961214</v>
+        <v>1.002194394617832</v>
       </c>
       <c r="D4">
-        <v>0.9911007653151394</v>
+        <v>1.005402908655259</v>
       </c>
       <c r="E4">
-        <v>1.002059210636925</v>
+        <v>0.9952127271496949</v>
       </c>
       <c r="F4">
         <v>1.002522882961214</v>
       </c>
       <c r="G4">
-        <v>1.005402908655259</v>
+        <v>1.002522882961214</v>
       </c>
       <c r="H4">
-        <v>0.9952127271496949</v>
+        <v>0.9911007653151394</v>
       </c>
       <c r="I4">
-        <v>1.002194394617832</v>
+        <v>0.9911007653151394</v>
       </c>
       <c r="J4">
-        <v>0.9911007653151394</v>
+        <v>1.002059210636925</v>
       </c>
       <c r="K4">
         <v>1.002522882961214</v>
@@ -790,7 +742,7 @@
         <v>0.9997488148893442</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004804824934492</v>
+        <v>1.004203263420819</v>
       </c>
       <c r="D5">
-        <v>0.9829641557470942</v>
+        <v>1.010386790092645</v>
       </c>
       <c r="E5">
-        <v>1.003955698333054</v>
+        <v>0.9908267993602869</v>
       </c>
       <c r="F5">
         <v>1.004804824934492</v>
       </c>
       <c r="G5">
-        <v>1.010386790092645</v>
+        <v>1.004804824934492</v>
       </c>
       <c r="H5">
-        <v>0.9908267993602869</v>
+        <v>0.9829641557470942</v>
       </c>
       <c r="I5">
-        <v>1.004203263420819</v>
+        <v>0.9829641557470942</v>
       </c>
       <c r="J5">
-        <v>0.9829641557470942</v>
+        <v>1.003955698333054</v>
       </c>
       <c r="K5">
         <v>1.004804824934492</v>
@@ -852,7 +804,7 @@
         <v>0.9995235886480653</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007030988946701</v>
+        <v>1.00616375338532</v>
       </c>
       <c r="D6">
-        <v>0.9750237945211493</v>
+        <v>1.015251796213469</v>
       </c>
       <c r="E6">
-        <v>1.00580685930035</v>
+        <v>0.9865463891786359</v>
       </c>
       <c r="F6">
         <v>1.007030988946701</v>
       </c>
       <c r="G6">
-        <v>1.015251796213469</v>
+        <v>1.007030988946701</v>
       </c>
       <c r="H6">
-        <v>0.9865463891786359</v>
+        <v>0.9750237945211493</v>
       </c>
       <c r="I6">
-        <v>1.00616375338532</v>
+        <v>0.9750237945211493</v>
       </c>
       <c r="J6">
-        <v>0.9750237945211493</v>
+        <v>1.00580685930035</v>
       </c>
       <c r="K6">
         <v>1.007030988946701</v>
@@ -905,16 +857,16 @@
         <v>0.9959538809227336</v>
       </c>
       <c r="R6">
-        <v>0.9987231579287255</v>
+        <v>0.9987231579287256</v>
       </c>
       <c r="S6">
-        <v>0.9987231579287255</v>
+        <v>0.9987231579287256</v>
       </c>
       <c r="T6">
-        <v>0.9993039302576042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9993039302576044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000065256986688</v>
+        <v>1.000079156592177</v>
       </c>
       <c r="D7">
-        <v>0.9996885264340043</v>
+        <v>1.000230065678605</v>
       </c>
       <c r="E7">
-        <v>1.000084874448225</v>
+        <v>0.9998241491642607</v>
       </c>
       <c r="F7">
         <v>1.000065256986688</v>
       </c>
       <c r="G7">
-        <v>1.000230065678605</v>
+        <v>1.000065256986688</v>
       </c>
       <c r="H7">
-        <v>0.9998241491642607</v>
+        <v>0.9996885264340043</v>
       </c>
       <c r="I7">
-        <v>1.000079156592177</v>
+        <v>0.9996885264340043</v>
       </c>
       <c r="J7">
-        <v>0.9996885264340043</v>
+        <v>1.000084874448225</v>
       </c>
       <c r="K7">
         <v>1.000065256986688</v>
@@ -976,7 +928,7 @@
         <v>0.9999953382173267</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000169587480294</v>
+        <v>1.000201973825122</v>
       </c>
       <c r="D8">
-        <v>0.9992041046004965</v>
+        <v>1.00058283521923</v>
       </c>
       <c r="E8">
-        <v>1.000215298999056</v>
+        <v>0.9995516782975582</v>
       </c>
       <c r="F8">
         <v>1.000169587480294</v>
       </c>
       <c r="G8">
-        <v>1.00058283521923</v>
+        <v>1.000169587480294</v>
       </c>
       <c r="H8">
-        <v>0.9995516782975582</v>
+        <v>0.9992041046004964</v>
       </c>
       <c r="I8">
-        <v>1.000201973825122</v>
+        <v>0.9992041046004964</v>
       </c>
       <c r="J8">
-        <v>0.9992041046004965</v>
+        <v>1.000215298999056</v>
       </c>
       <c r="K8">
         <v>1.000169587480294</v>
@@ -1023,22 +975,22 @@
         <v>0.9996570272990368</v>
       </c>
       <c r="P8">
-        <v>0.9998629970266153</v>
+        <v>0.9998629970266154</v>
       </c>
       <c r="Q8">
-        <v>0.9998629970266153</v>
+        <v>0.9998629970266154</v>
       </c>
       <c r="R8">
-        <v>0.9999396446400348</v>
+        <v>0.999939644640035</v>
       </c>
       <c r="S8">
-        <v>0.9999396446400348</v>
+        <v>0.999939644640035</v>
       </c>
       <c r="T8">
-        <v>0.9999875797369593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999875797369594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000245220757259</v>
+        <v>1.000283316543672</v>
       </c>
       <c r="D9">
-        <v>0.9988808486410404</v>
+        <v>1.000807550247895</v>
       </c>
       <c r="E9">
-        <v>1.000298991415224</v>
+        <v>0.9993720224725388</v>
       </c>
       <c r="F9">
         <v>1.000245220757259</v>
       </c>
       <c r="G9">
-        <v>1.000807550247895</v>
+        <v>1.000245220757259</v>
       </c>
       <c r="H9">
-        <v>0.9993720224725388</v>
+        <v>0.9988808486410404</v>
       </c>
       <c r="I9">
-        <v>1.000283316543672</v>
+        <v>0.9988808486410404</v>
       </c>
       <c r="J9">
-        <v>0.9988808486410404</v>
+        <v>1.000298991415224</v>
       </c>
       <c r="K9">
         <v>1.000245220757259</v>
@@ -1100,7 +1052,7 @@
         <v>0.999981325012938</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000519897622725</v>
+        <v>1.000610299760883</v>
       </c>
       <c r="D10">
-        <v>0.9975922890858193</v>
+        <v>1.001750965632209</v>
       </c>
       <c r="E10">
-        <v>1.000647499138433</v>
+        <v>0.9986462283784562</v>
       </c>
       <c r="F10">
         <v>1.000519897622725</v>
       </c>
       <c r="G10">
-        <v>1.001750965632209</v>
+        <v>1.000519897622725</v>
       </c>
       <c r="H10">
-        <v>0.9986462283784562</v>
+        <v>0.9975922890858193</v>
       </c>
       <c r="I10">
-        <v>1.000610299760883</v>
+        <v>0.9975922890858193</v>
       </c>
       <c r="J10">
-        <v>0.9975922890858193</v>
+        <v>1.000647499138433</v>
       </c>
       <c r="K10">
         <v>1.000519897622725</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999611966030875</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000881626272238</v>
+        <v>1.001013640229758</v>
       </c>
       <c r="D11">
-        <v>0.995994336907705</v>
+        <v>1.002883401761529</v>
       </c>
       <c r="E11">
-        <v>1.00106796497446</v>
+        <v>0.9977537600162266</v>
       </c>
       <c r="F11">
         <v>1.000881626272238</v>
       </c>
       <c r="G11">
-        <v>1.002883401761529</v>
+        <v>1.000881626272238</v>
       </c>
       <c r="H11">
-        <v>0.9977537600162266</v>
+        <v>0.995994336907705</v>
       </c>
       <c r="I11">
-        <v>1.001013640229758</v>
+        <v>0.995994336907705</v>
       </c>
       <c r="J11">
-        <v>0.995994336907705</v>
+        <v>1.00106796497446</v>
       </c>
       <c r="K11">
         <v>1.000881626272238</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999324550269861</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9943764317764056</v>
+        <v>0.9911639298574813</v>
       </c>
       <c r="D12">
-        <v>1.034154455444146</v>
+        <v>0.9720480601021541</v>
       </c>
       <c r="E12">
-        <v>0.9898419146454647</v>
+        <v>1.019834369555463</v>
       </c>
       <c r="F12">
         <v>0.9943764317764056</v>
       </c>
       <c r="G12">
-        <v>0.9720480601021539</v>
+        <v>0.9943764317764056</v>
       </c>
       <c r="H12">
-        <v>1.019834369555463</v>
+        <v>1.034154455444146</v>
       </c>
       <c r="I12">
-        <v>0.9911639298574813</v>
+        <v>1.034154455444146</v>
       </c>
       <c r="J12">
-        <v>1.034154455444146</v>
+        <v>0.9898419146454647</v>
       </c>
       <c r="K12">
         <v>0.9943764317764056</v>
@@ -1286,7 +1238,7 @@
         <v>1.000236526896852</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9961875359280461</v>
+        <v>0.9975592918069214</v>
       </c>
       <c r="D13">
+        <v>0.9953656128732151</v>
+      </c>
+      <c r="E13">
+        <v>1.005200883011216</v>
+      </c>
+      <c r="F13">
+        <v>0.9961875359280463</v>
+      </c>
+      <c r="G13">
+        <v>0.9961875359280463</v>
+      </c>
+      <c r="H13">
         <v>1.010270888361227</v>
       </c>
-      <c r="E13">
+      <c r="I13">
+        <v>1.010270888361227</v>
+      </c>
+      <c r="J13">
         <v>0.9981238003632598</v>
       </c>
-      <c r="F13">
-        <v>0.9961875359280461</v>
-      </c>
-      <c r="G13">
-        <v>0.9953656128732151</v>
-      </c>
-      <c r="H13">
-        <v>1.005200883011216</v>
-      </c>
-      <c r="I13">
-        <v>0.9975592918069214</v>
-      </c>
-      <c r="J13">
-        <v>1.010270888361227</v>
-      </c>
       <c r="K13">
-        <v>0.9961875359280461</v>
+        <v>0.9961875359280463</v>
       </c>
       <c r="L13">
         <v>0.9981238003632598</v>
@@ -1345,10 +1297,10 @@
         <v>1.000192440145145</v>
       </c>
       <c r="T13">
-        <v>1.000451335390647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000451335390648</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9943770292357982</v>
+        <v>0.9911644975742899</v>
       </c>
       <c r="D14">
-        <v>1.034152202205561</v>
+        <v>0.9720494985868959</v>
       </c>
       <c r="E14">
-        <v>0.989842461027763</v>
+        <v>1.019833143436857</v>
       </c>
       <c r="F14">
         <v>0.9943770292357982</v>
       </c>
       <c r="G14">
-        <v>0.9720494985868959</v>
+        <v>0.9943770292357982</v>
       </c>
       <c r="H14">
-        <v>1.019833143436857</v>
+        <v>1.034152202205561</v>
       </c>
       <c r="I14">
-        <v>0.99116449757429</v>
+        <v>1.034152202205561</v>
       </c>
       <c r="J14">
-        <v>1.034152202205561</v>
+        <v>0.989842461027763</v>
       </c>
       <c r="K14">
         <v>0.9943770292357982</v>
@@ -1410,7 +1362,7 @@
         <v>1.000236472011194</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,31 +1370,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9961876684333796</v>
+        <v>0.9975594406234848</v>
       </c>
       <c r="D15">
+        <v>0.9953660289563483</v>
+      </c>
+      <c r="E15">
+        <v>1.005200557745764</v>
+      </c>
+      <c r="F15">
+        <v>0.9961876684333794</v>
+      </c>
+      <c r="G15">
+        <v>0.9961876684333794</v>
+      </c>
+      <c r="H15">
         <v>1.01027030309366</v>
       </c>
-      <c r="E15">
+      <c r="I15">
+        <v>1.01027030309366</v>
+      </c>
+      <c r="J15">
         <v>0.998123952393022</v>
       </c>
-      <c r="F15">
-        <v>0.9961876684333796</v>
-      </c>
-      <c r="G15">
-        <v>0.9953660289563484</v>
-      </c>
-      <c r="H15">
-        <v>1.005200557745764</v>
-      </c>
-      <c r="I15">
-        <v>0.9975594406234848</v>
-      </c>
-      <c r="J15">
-        <v>1.01027030309366</v>
-      </c>
       <c r="K15">
-        <v>0.9961876684333796</v>
+        <v>0.9961876684333794</v>
       </c>
       <c r="L15">
         <v>0.998123952393022</v>
@@ -1472,7 +1424,7 @@
         <v>1.00045132520761</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999882151467632</v>
+        <v>1.022143028125798</v>
       </c>
       <c r="D16">
-        <v>0.9999915360004145</v>
+        <v>1.055049210078562</v>
       </c>
       <c r="E16">
-        <v>1.000009838532548</v>
+        <v>0.951645247465613</v>
       </c>
       <c r="F16">
-        <v>0.9999882151467632</v>
+        <v>1.025069879395839</v>
       </c>
       <c r="G16">
-        <v>1.000030352218656</v>
+        <v>1.025069879395839</v>
       </c>
       <c r="H16">
-        <v>0.9999903400805191</v>
+        <v>0.9103438822704439</v>
       </c>
       <c r="I16">
-        <v>1.000003535734545</v>
+        <v>0.9103438822704439</v>
       </c>
       <c r="J16">
-        <v>0.9999915360004145</v>
+        <v>1.020938541899746</v>
       </c>
       <c r="K16">
-        <v>0.9999882151467632</v>
+        <v>1.025069879395839</v>
       </c>
       <c r="L16">
-        <v>1.000009838532548</v>
+        <v>1.020938541899746</v>
       </c>
       <c r="M16">
-        <v>1.000000687266481</v>
+        <v>0.965641212085095</v>
       </c>
       <c r="N16">
-        <v>1.000000687266481</v>
+        <v>0.965641212085095</v>
       </c>
       <c r="O16">
-        <v>0.9999972382044938</v>
+        <v>0.9609758905452677</v>
       </c>
       <c r="P16">
-        <v>0.9999965298932417</v>
+        <v>0.9854507678553431</v>
       </c>
       <c r="Q16">
-        <v>0.9999965298932416</v>
+        <v>0.9854507678553431</v>
       </c>
       <c r="R16">
-        <v>0.999994451206622</v>
+        <v>0.9953555457404673</v>
       </c>
       <c r="S16">
-        <v>0.999994451206622</v>
+        <v>0.9953555457404673</v>
       </c>
       <c r="T16">
-        <v>1.000002302952241</v>
+        <v>0.9975316315393338</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000094538121234</v>
+        <v>1.018054338730339</v>
       </c>
       <c r="D17">
-        <v>0.9996090134795191</v>
+        <v>1.046103199602777</v>
       </c>
       <c r="E17">
-        <v>1.00009952926596</v>
+        <v>0.9604642148216223</v>
       </c>
       <c r="F17">
-        <v>1.000094538121234</v>
+        <v>1.019548699044182</v>
       </c>
       <c r="G17">
-        <v>1.000266359156377</v>
+        <v>1.019548699044182</v>
       </c>
       <c r="H17">
-        <v>0.9997838018786067</v>
+        <v>0.9272291858158593</v>
       </c>
       <c r="I17">
-        <v>1.000098075461255</v>
+        <v>0.9272291858158593</v>
       </c>
       <c r="J17">
-        <v>0.9996090134795191</v>
+        <v>1.017439362483604</v>
       </c>
       <c r="K17">
-        <v>1.000094538121234</v>
+        <v>1.019548699044182</v>
       </c>
       <c r="L17">
-        <v>1.00009952926596</v>
+        <v>1.017439362483604</v>
       </c>
       <c r="M17">
-        <v>0.9998542713727394</v>
+        <v>0.9723342741497314</v>
       </c>
       <c r="N17">
-        <v>0.9998542713727394</v>
+        <v>0.9723342741497314</v>
       </c>
       <c r="O17">
-        <v>0.999830781541362</v>
+        <v>0.9683775877070283</v>
       </c>
       <c r="P17">
-        <v>0.9999343602889045</v>
+        <v>0.988072415781215</v>
       </c>
       <c r="Q17">
-        <v>0.9999343602889045</v>
+        <v>0.988072415781215</v>
       </c>
       <c r="R17">
-        <v>0.999974404746987</v>
+        <v>0.9959414865969567</v>
       </c>
       <c r="S17">
-        <v>0.999974404746987</v>
+        <v>0.9959414865969567</v>
       </c>
       <c r="T17">
-        <v>0.9999918862271585</v>
+        <v>0.9981398334163972</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000383528063492</v>
+        <v>1.009836126651964</v>
       </c>
       <c r="D18">
-        <v>0.9985922656537026</v>
+        <v>1.028061267429091</v>
       </c>
       <c r="E18">
-        <v>1.000334382860835</v>
+        <v>0.9781956745896431</v>
       </c>
       <c r="F18">
-        <v>1.000383528063492</v>
+        <v>1.008495531978544</v>
       </c>
       <c r="G18">
-        <v>1.000882315493975</v>
+        <v>1.008495531978544</v>
       </c>
       <c r="H18">
-        <v>0.9992371198472365</v>
+        <v>0.9611520048364859</v>
       </c>
       <c r="I18">
-        <v>1.000348712530972</v>
+        <v>0.9611520048364859</v>
       </c>
       <c r="J18">
-        <v>0.9985922656537026</v>
+        <v>1.010387813500399</v>
       </c>
       <c r="K18">
-        <v>1.000383528063492</v>
+        <v>1.008495531978544</v>
       </c>
       <c r="L18">
-        <v>1.000334382860835</v>
+        <v>1.010387813500399</v>
       </c>
       <c r="M18">
-        <v>0.9994633242572688</v>
+        <v>0.9857699091684422</v>
       </c>
       <c r="N18">
-        <v>0.9994633242572688</v>
+        <v>0.9857699091684422</v>
       </c>
       <c r="O18">
-        <v>0.9993879227872581</v>
+        <v>0.9832451643088426</v>
       </c>
       <c r="P18">
-        <v>0.9997700588593433</v>
+        <v>0.9933451167718094</v>
       </c>
       <c r="Q18">
-        <v>0.9997700588593433</v>
+        <v>0.9933451167718094</v>
       </c>
       <c r="R18">
-        <v>0.9999234261603805</v>
+        <v>0.997132720573493</v>
       </c>
       <c r="S18">
-        <v>0.9999234261603805</v>
+        <v>0.997132720573493</v>
       </c>
       <c r="T18">
-        <v>0.9999630540750356</v>
+        <v>0.9993547364976877</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.010705535767263</v>
+      </c>
+      <c r="D19">
+        <v>1.031146283251133</v>
+      </c>
+      <c r="E19">
+        <v>0.9762139745511852</v>
+      </c>
+      <c r="F19">
+        <v>1.008803862078169</v>
+      </c>
+      <c r="G19">
+        <v>1.008803862078169</v>
+      </c>
+      <c r="H19">
+        <v>0.9578821642855834</v>
+      </c>
+      <c r="I19">
+        <v>0.9578821642855834</v>
+      </c>
+      <c r="J19">
+        <v>1.011488127195284</v>
+      </c>
+      <c r="K19">
+        <v>1.008803862078169</v>
+      </c>
+      <c r="L19">
+        <v>1.011488127195284</v>
+      </c>
+      <c r="M19">
+        <v>0.9846851457404335</v>
+      </c>
+      <c r="N19">
+        <v>0.9846851457404335</v>
+      </c>
+      <c r="O19">
+        <v>0.981861422010684</v>
+      </c>
+      <c r="P19">
+        <v>0.992724717853012</v>
+      </c>
+      <c r="Q19">
+        <v>0.992724717853012</v>
+      </c>
+      <c r="R19">
+        <v>0.9967445039093012</v>
+      </c>
+      <c r="S19">
+        <v>0.9967445039093012</v>
+      </c>
+      <c r="T19">
+        <v>0.9993733245214361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000003535734546</v>
+      </c>
+      <c r="D20">
+        <v>1.000030352218656</v>
+      </c>
+      <c r="E20">
+        <v>0.999990340080519</v>
+      </c>
+      <c r="F20">
+        <v>0.9999882151467632</v>
+      </c>
+      <c r="G20">
+        <v>0.9999882151467632</v>
+      </c>
+      <c r="H20">
+        <v>0.9999915360004145</v>
+      </c>
+      <c r="I20">
+        <v>0.9999915360004145</v>
+      </c>
+      <c r="J20">
+        <v>1.000009838532548</v>
+      </c>
+      <c r="K20">
+        <v>0.9999882151467632</v>
+      </c>
+      <c r="L20">
+        <v>1.000009838532548</v>
+      </c>
+      <c r="M20">
+        <v>1.000000687266481</v>
+      </c>
+      <c r="N20">
+        <v>1.000000687266481</v>
+      </c>
+      <c r="O20">
+        <v>0.9999972382044936</v>
+      </c>
+      <c r="P20">
+        <v>0.9999965298932417</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999965298932416</v>
+      </c>
+      <c r="R20">
+        <v>0.999994451206622</v>
+      </c>
+      <c r="S20">
+        <v>0.999994451206622</v>
+      </c>
+      <c r="T20">
+        <v>1.000002302952241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000098075461255</v>
+      </c>
+      <c r="D21">
+        <v>1.000266359156377</v>
+      </c>
+      <c r="E21">
+        <v>0.9997838018786067</v>
+      </c>
+      <c r="F21">
+        <v>1.000094538121234</v>
+      </c>
+      <c r="G21">
+        <v>1.000094538121234</v>
+      </c>
+      <c r="H21">
+        <v>0.999609013479519</v>
+      </c>
+      <c r="I21">
+        <v>0.999609013479519</v>
+      </c>
+      <c r="J21">
+        <v>1.00009952926596</v>
+      </c>
+      <c r="K21">
+        <v>1.000094538121234</v>
+      </c>
+      <c r="L21">
+        <v>1.00009952926596</v>
+      </c>
+      <c r="M21">
+        <v>0.9998542713727394</v>
+      </c>
+      <c r="N21">
+        <v>0.9998542713727394</v>
+      </c>
+      <c r="O21">
+        <v>0.999830781541362</v>
+      </c>
+      <c r="P21">
+        <v>0.9999343602889045</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999343602889045</v>
+      </c>
+      <c r="R21">
+        <v>0.999974404746987</v>
+      </c>
+      <c r="S21">
+        <v>0.999974404746987</v>
+      </c>
+      <c r="T21">
+        <v>0.9999918862271585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000348712530972</v>
+      </c>
+      <c r="D22">
+        <v>1.000882315493975</v>
+      </c>
+      <c r="E22">
+        <v>0.9992371198472362</v>
+      </c>
+      <c r="F22">
+        <v>1.000383528063492</v>
+      </c>
+      <c r="G22">
+        <v>1.000383528063492</v>
+      </c>
+      <c r="H22">
+        <v>0.9985922656537026</v>
+      </c>
+      <c r="I22">
+        <v>0.9985922656537026</v>
+      </c>
+      <c r="J22">
+        <v>1.000334382860835</v>
+      </c>
+      <c r="K22">
+        <v>1.000383528063492</v>
+      </c>
+      <c r="L22">
+        <v>1.000334382860835</v>
+      </c>
+      <c r="M22">
+        <v>0.9994633242572688</v>
+      </c>
+      <c r="N22">
+        <v>0.9994633242572688</v>
+      </c>
+      <c r="O22">
+        <v>0.9993879227872579</v>
+      </c>
+      <c r="P22">
+        <v>0.9997700588593433</v>
+      </c>
+      <c r="Q22">
+        <v>0.9997700588593433</v>
+      </c>
+      <c r="R22">
+        <v>0.9999234261603805</v>
+      </c>
+      <c r="S22">
+        <v>0.9999234261603805</v>
+      </c>
+      <c r="T22">
+        <v>0.9999630540750356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000820507555888</v>
+      </c>
+      <c r="D23">
+        <v>1.002008852548077</v>
+      </c>
+      <c r="E23">
+        <v>0.9982110049623568</v>
+      </c>
+      <c r="F23">
         <v>1.000951652953056</v>
       </c>
-      <c r="D19">
+      <c r="G23">
+        <v>1.000951652953056</v>
+      </c>
+      <c r="H23">
         <v>0.9966693854256402</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>0.9966693854256402</v>
+      </c>
+      <c r="J23">
         <v>1.000766538970727</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>1.000951652953056</v>
       </c>
-      <c r="G19">
-        <v>1.002008852548077</v>
-      </c>
-      <c r="H19">
-        <v>0.9982110049623568</v>
-      </c>
-      <c r="I19">
-        <v>1.000820507555888</v>
-      </c>
-      <c r="J19">
-        <v>0.9966693854256402</v>
-      </c>
-      <c r="K19">
-        <v>1.000951652953056</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000766538970727</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9987179621981837</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9987179621981837</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.998548976452908</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999462525783141</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.999462525783141</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9998348075756197</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9998348075756197</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999046570692908</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00113675796516</v>
+        <v>1.011652461851587</v>
       </c>
       <c r="D3">
-        <v>1.002797874878896</v>
+        <v>1.033190027038905</v>
       </c>
       <c r="E3">
-        <v>0.9975201484286009</v>
+        <v>0.9741740676296817</v>
       </c>
       <c r="F3">
-        <v>1.001307640299948</v>
+        <v>1.010103122204613</v>
       </c>
       <c r="G3">
-        <v>1.001307640299948</v>
+        <v>1.010103122204613</v>
       </c>
       <c r="H3">
-        <v>0.9953896840496047</v>
+        <v>0.9539639732997099</v>
       </c>
       <c r="I3">
-        <v>0.9953896840496047</v>
+        <v>0.9539639732997099</v>
       </c>
       <c r="J3">
-        <v>1.001066432697322</v>
+        <v>1.012290052536019</v>
       </c>
       <c r="K3">
-        <v>1.001307640299948</v>
+        <v>1.010103122204613</v>
       </c>
       <c r="L3">
-        <v>1.001066432697322</v>
+        <v>1.012290052536019</v>
       </c>
       <c r="M3">
-        <v>0.9982280583734631</v>
+        <v>0.9831270129178644</v>
       </c>
       <c r="N3">
-        <v>0.9982280583734631</v>
+        <v>0.9831270129178644</v>
       </c>
       <c r="O3">
-        <v>0.9979920883918423</v>
+        <v>0.9801426978218034</v>
       </c>
       <c r="P3">
-        <v>0.9992545856822913</v>
+        <v>0.9921190493467806</v>
       </c>
       <c r="Q3">
-        <v>0.9992545856822913</v>
+        <v>0.9921190493467806</v>
       </c>
       <c r="R3">
-        <v>0.9997678493367055</v>
+        <v>0.9966150675612387</v>
       </c>
       <c r="S3">
-        <v>0.9997678493367055</v>
+        <v>0.9966150675612387</v>
       </c>
       <c r="T3">
-        <v>0.9998697563865884</v>
+        <v>0.9992289507600861</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002194394617832</v>
+        <v>1.010659788155056</v>
       </c>
       <c r="D4">
-        <v>1.005402908655259</v>
+        <v>1.030413985218039</v>
       </c>
       <c r="E4">
-        <v>0.9952127271496949</v>
+        <v>0.9763695528130817</v>
       </c>
       <c r="F4">
-        <v>1.002522882961214</v>
+        <v>1.009204801936264</v>
       </c>
       <c r="G4">
-        <v>1.002522882961214</v>
+        <v>1.009204801936264</v>
       </c>
       <c r="H4">
-        <v>0.9911007653151394</v>
+        <v>0.9578997244465136</v>
       </c>
       <c r="I4">
-        <v>0.9911007653151394</v>
+        <v>0.9578997244465136</v>
       </c>
       <c r="J4">
-        <v>1.002059210636925</v>
+        <v>1.01125855005591</v>
       </c>
       <c r="K4">
-        <v>1.002522882961214</v>
+        <v>1.009204801936264</v>
       </c>
       <c r="L4">
-        <v>1.002059210636925</v>
+        <v>1.01125855005591</v>
       </c>
       <c r="M4">
-        <v>0.9965799879760322</v>
+        <v>0.9845791372512118</v>
       </c>
       <c r="N4">
-        <v>0.9965799879760322</v>
+        <v>0.9845791372512118</v>
       </c>
       <c r="O4">
-        <v>0.9961242343672531</v>
+        <v>0.9818426091051684</v>
       </c>
       <c r="P4">
-        <v>0.9985609529710929</v>
+        <v>0.9927876921462294</v>
       </c>
       <c r="Q4">
-        <v>0.9985609529710929</v>
+        <v>0.9927876921462294</v>
       </c>
       <c r="R4">
-        <v>0.9995514354686232</v>
+        <v>0.9968919695937382</v>
       </c>
       <c r="S4">
-        <v>0.9995514354686232</v>
+        <v>0.9968919695937382</v>
       </c>
       <c r="T4">
-        <v>0.9997488148893442</v>
+        <v>0.9993010671041441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004203263420819</v>
+        <v>1.013540276522909</v>
       </c>
       <c r="D5">
-        <v>1.010386790092645</v>
+        <v>1.038478834824799</v>
       </c>
       <c r="E5">
-        <v>0.9908267993602869</v>
+        <v>0.9699979527762802</v>
       </c>
       <c r="F5">
-        <v>1.004804824934492</v>
+        <v>1.011804567843666</v>
       </c>
       <c r="G5">
-        <v>1.004804824934492</v>
+        <v>1.011804567843666</v>
       </c>
       <c r="H5">
-        <v>0.9829641557470942</v>
+        <v>0.9464817301617244</v>
       </c>
       <c r="I5">
-        <v>0.9829641557470942</v>
+        <v>0.9464817301617244</v>
       </c>
       <c r="J5">
-        <v>1.003955698333054</v>
+        <v>1.014254564043126</v>
       </c>
       <c r="K5">
-        <v>1.004804824934492</v>
+        <v>1.011804567843666</v>
       </c>
       <c r="L5">
-        <v>1.003955698333054</v>
+        <v>1.014254564043126</v>
       </c>
       <c r="M5">
-        <v>0.9934599270400744</v>
+        <v>0.980368147102425</v>
       </c>
       <c r="N5">
-        <v>0.9934599270400744</v>
+        <v>0.980368147102425</v>
       </c>
       <c r="O5">
-        <v>0.9925822178134786</v>
+        <v>0.9769114156603768</v>
       </c>
       <c r="P5">
-        <v>0.9972415596715468</v>
+        <v>0.9908469540161722</v>
       </c>
       <c r="Q5">
-        <v>0.9972415596715468</v>
+        <v>0.9908469540161722</v>
       </c>
       <c r="R5">
-        <v>0.9991323759872831</v>
+        <v>0.9960863574730457</v>
       </c>
       <c r="S5">
-        <v>0.9991323759872831</v>
+        <v>0.9960863574730457</v>
       </c>
       <c r="T5">
-        <v>0.9995235886480653</v>
+        <v>0.9990929876954175</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.00616375338532</v>
+        <v>1.015306039943181</v>
       </c>
       <c r="D6">
-        <v>1.015251796213469</v>
+        <v>1.04343696215909</v>
       </c>
       <c r="E6">
-        <v>0.9865463891786359</v>
+        <v>0.9660908183522721</v>
       </c>
       <c r="F6">
-        <v>1.007030988946701</v>
+        <v>1.013387777613637</v>
       </c>
       <c r="G6">
-        <v>1.007030988946701</v>
+        <v>1.013387777613637</v>
       </c>
       <c r="H6">
-        <v>0.9750237945211493</v>
+        <v>0.9394862755681832</v>
       </c>
       <c r="I6">
-        <v>0.9750237945211493</v>
+        <v>0.9394862755681832</v>
       </c>
       <c r="J6">
-        <v>1.00580685930035</v>
+        <v>1.016095457272726</v>
       </c>
       <c r="K6">
-        <v>1.007030988946701</v>
+        <v>1.013387777613637</v>
       </c>
       <c r="L6">
-        <v>1.00580685930035</v>
+        <v>1.016095457272726</v>
       </c>
       <c r="M6">
-        <v>0.9904153269107498</v>
+        <v>0.9777908664204545</v>
       </c>
       <c r="N6">
-        <v>0.9904153269107498</v>
+        <v>0.9777908664204545</v>
       </c>
       <c r="O6">
-        <v>0.9891256810000453</v>
+        <v>0.9738908503977269</v>
       </c>
       <c r="P6">
-        <v>0.9959538809227336</v>
+        <v>0.9896565034848486</v>
       </c>
       <c r="Q6">
-        <v>0.9959538809227336</v>
+        <v>0.9896565034848486</v>
       </c>
       <c r="R6">
-        <v>0.9987231579287256</v>
+        <v>0.9955893220170456</v>
       </c>
       <c r="S6">
-        <v>0.9987231579287256</v>
+        <v>0.9955893220170456</v>
       </c>
       <c r="T6">
-        <v>0.9993039302576044</v>
+        <v>0.9989672218181816</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000079156592177</v>
+        <v>1.006493087016937</v>
       </c>
       <c r="D7">
-        <v>1.000230065678605</v>
+        <v>1.018246279172899</v>
       </c>
       <c r="E7">
-        <v>0.9998241491642607</v>
+        <v>0.9856313956089927</v>
       </c>
       <c r="F7">
-        <v>1.000065256986688</v>
+        <v>1.005811368658935</v>
       </c>
       <c r="G7">
-        <v>1.000065256986688</v>
+        <v>1.005811368658935</v>
       </c>
       <c r="H7">
-        <v>0.9996885264340043</v>
+        <v>0.9742801489356536</v>
       </c>
       <c r="I7">
-        <v>0.9996885264340043</v>
+        <v>0.9742801489356536</v>
       </c>
       <c r="J7">
-        <v>1.000084874448225</v>
+        <v>1.006773626646176</v>
       </c>
       <c r="K7">
-        <v>1.000065256986688</v>
+        <v>1.005811368658935</v>
       </c>
       <c r="L7">
-        <v>1.000084874448225</v>
+        <v>1.006773626646176</v>
       </c>
       <c r="M7">
-        <v>0.9998867004411147</v>
+        <v>0.9905268877909149</v>
       </c>
       <c r="N7">
-        <v>0.9998867004411147</v>
+        <v>0.9905268877909149</v>
       </c>
       <c r="O7">
-        <v>0.9998658500154968</v>
+        <v>0.9888950570636075</v>
       </c>
       <c r="P7">
-        <v>0.9999462192896393</v>
+        <v>0.9956217147469216</v>
       </c>
       <c r="Q7">
-        <v>0.9999462192896393</v>
+        <v>0.9956217147469216</v>
       </c>
       <c r="R7">
-        <v>0.9999759787139015</v>
+        <v>0.998169128224925</v>
       </c>
       <c r="S7">
-        <v>0.9999759787139015</v>
+        <v>0.998169128224925</v>
       </c>
       <c r="T7">
-        <v>0.9999953382173267</v>
+        <v>0.9995393176732655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000201973825122</v>
+        <v>1.006749608035177</v>
       </c>
       <c r="D8">
-        <v>1.00058283521923</v>
+        <v>1.018984812710395</v>
       </c>
       <c r="E8">
-        <v>0.9995516782975582</v>
+        <v>0.9850621461142378</v>
       </c>
       <c r="F8">
-        <v>1.000169587480294</v>
+        <v>1.00602801634765</v>
       </c>
       <c r="G8">
-        <v>1.000169587480294</v>
+        <v>1.00602801634765</v>
       </c>
       <c r="H8">
-        <v>0.9992041046004964</v>
+        <v>0.9732688322546036</v>
       </c>
       <c r="I8">
-        <v>0.9992041046004964</v>
+        <v>0.9732688322546036</v>
       </c>
       <c r="J8">
-        <v>1.000215298999056</v>
+        <v>1.007046556637662</v>
       </c>
       <c r="K8">
-        <v>1.000169587480294</v>
+        <v>1.00602801634765</v>
       </c>
       <c r="L8">
-        <v>1.000215298999056</v>
+        <v>1.007046556637662</v>
       </c>
       <c r="M8">
-        <v>0.9997097017997763</v>
+        <v>0.990157694446133</v>
       </c>
       <c r="N8">
-        <v>0.9997097017997763</v>
+        <v>0.990157694446133</v>
       </c>
       <c r="O8">
-        <v>0.9996570272990368</v>
+        <v>0.9884591783355012</v>
       </c>
       <c r="P8">
-        <v>0.9998629970266154</v>
+        <v>0.9954478017466387</v>
       </c>
       <c r="Q8">
-        <v>0.9998629970266154</v>
+        <v>0.9954478017466387</v>
       </c>
       <c r="R8">
-        <v>0.999939644640035</v>
+        <v>0.9980928553968915</v>
       </c>
       <c r="S8">
-        <v>0.999939644640035</v>
+        <v>0.9980928553968915</v>
       </c>
       <c r="T8">
-        <v>0.9999875797369594</v>
+        <v>0.9995233286832876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000283316543672</v>
+        <v>1.006967331384721</v>
       </c>
       <c r="D9">
-        <v>1.000807550247895</v>
+        <v>1.019634809529264</v>
       </c>
       <c r="E9">
-        <v>0.9993720224725388</v>
+        <v>0.9845769082236014</v>
       </c>
       <c r="F9">
-        <v>1.000245220757259</v>
+        <v>1.006194943458832</v>
       </c>
       <c r="G9">
-        <v>1.000245220757259</v>
+        <v>1.006194943458832</v>
       </c>
       <c r="H9">
-        <v>0.9988808486410404</v>
+        <v>0.9724167515416</v>
       </c>
       <c r="I9">
-        <v>0.9988808486410404</v>
+        <v>0.9724167515416</v>
       </c>
       <c r="J9">
-        <v>1.000298991415224</v>
+        <v>1.00728518400066</v>
       </c>
       <c r="K9">
-        <v>1.000245220757259</v>
+        <v>1.006194943458832</v>
       </c>
       <c r="L9">
-        <v>1.000298991415224</v>
+        <v>1.00728518400066</v>
       </c>
       <c r="M9">
-        <v>0.9995899200281324</v>
+        <v>0.9898509677711298</v>
       </c>
       <c r="N9">
-        <v>0.9995899200281324</v>
+        <v>0.9898509677711298</v>
       </c>
       <c r="O9">
-        <v>0.9995172875096011</v>
+        <v>0.9880929479219537</v>
       </c>
       <c r="P9">
-        <v>0.999808353604508</v>
+        <v>0.9952989596670306</v>
       </c>
       <c r="Q9">
-        <v>0.9998083536045078</v>
+        <v>0.9952989596670306</v>
       </c>
       <c r="R9">
-        <v>0.9999175703926957</v>
+        <v>0.9980229556149809</v>
       </c>
       <c r="S9">
-        <v>0.9999175703926957</v>
+        <v>0.9980229556149809</v>
       </c>
       <c r="T9">
-        <v>0.999981325012938</v>
+        <v>0.9995126546897798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000610299760883</v>
+        <v>1.007487628405974</v>
       </c>
       <c r="D10">
-        <v>1.001750965632209</v>
+        <v>1.021078875788751</v>
       </c>
       <c r="E10">
-        <v>0.9986462283784562</v>
+        <v>0.9834271596094034</v>
       </c>
       <c r="F10">
-        <v>1.000519897622725</v>
+        <v>1.006673807801896</v>
       </c>
       <c r="G10">
-        <v>1.000519897622725</v>
+        <v>1.006673807801896</v>
       </c>
       <c r="H10">
-        <v>0.9975922890858193</v>
+        <v>0.9703509079950197</v>
       </c>
       <c r="I10">
-        <v>0.9975922890858193</v>
+        <v>0.9703509079950197</v>
       </c>
       <c r="J10">
-        <v>1.000647499138433</v>
+        <v>1.007822531396456</v>
       </c>
       <c r="K10">
-        <v>1.000519897622725</v>
+        <v>1.006673807801896</v>
       </c>
       <c r="L10">
-        <v>1.000647499138433</v>
+        <v>1.007822531396456</v>
       </c>
       <c r="M10">
-        <v>0.9991198941121263</v>
+        <v>0.989086719695738</v>
       </c>
       <c r="N10">
-        <v>0.9991198941121263</v>
+        <v>0.989086719695738</v>
       </c>
       <c r="O10">
-        <v>0.9989620055342363</v>
+        <v>0.9872001996669598</v>
       </c>
       <c r="P10">
-        <v>0.9995865619489924</v>
+        <v>0.9949490823977908</v>
       </c>
       <c r="Q10">
-        <v>0.9995865619489924</v>
+        <v>0.9949490823977908</v>
       </c>
       <c r="R10">
-        <v>0.9998198958674255</v>
+        <v>0.9978802637488171</v>
       </c>
       <c r="S10">
-        <v>0.9998198958674255</v>
+        <v>0.9978802637488171</v>
       </c>
       <c r="T10">
-        <v>0.9999611966030875</v>
+        <v>0.99947348516625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001013640229758</v>
+        <v>1.00124068672798</v>
       </c>
       <c r="D11">
-        <v>1.002883401761529</v>
+        <v>1.003062326582502</v>
       </c>
       <c r="E11">
-        <v>0.9977537600162266</v>
+        <v>0.9972926479700712</v>
       </c>
       <c r="F11">
-        <v>1.000881626272238</v>
+        <v>1.001420857348934</v>
       </c>
       <c r="G11">
-        <v>1.000881626272238</v>
+        <v>1.001420857348934</v>
       </c>
       <c r="H11">
-        <v>0.995994336907705</v>
+        <v>0.99497053024916</v>
       </c>
       <c r="I11">
-        <v>0.995994336907705</v>
+        <v>0.99497053024916</v>
       </c>
       <c r="J11">
-        <v>1.00106796497446</v>
+        <v>1.001166538388408</v>
       </c>
       <c r="K11">
-        <v>1.000881626272238</v>
+        <v>1.001420857348934</v>
       </c>
       <c r="L11">
-        <v>1.00106796497446</v>
+        <v>1.001166538388408</v>
       </c>
       <c r="M11">
-        <v>0.9985311509410824</v>
+        <v>0.998068534318784</v>
       </c>
       <c r="N11">
-        <v>0.9985311509410824</v>
+        <v>0.998068534318784</v>
       </c>
       <c r="O11">
-        <v>0.9982720206327972</v>
+        <v>0.9978099055358797</v>
       </c>
       <c r="P11">
-        <v>0.9993146427181342</v>
+        <v>0.999185975328834</v>
       </c>
       <c r="Q11">
-        <v>0.9993146427181342</v>
+        <v>0.999185975328834</v>
       </c>
       <c r="R11">
-        <v>0.9997063886066599</v>
+        <v>0.9997446958338591</v>
       </c>
       <c r="S11">
-        <v>0.9997063886066599</v>
+        <v>0.9997446958338591</v>
       </c>
       <c r="T11">
-        <v>0.9999324550269861</v>
+        <v>0.999858931211176</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9911639298574813</v>
+        <v>1.000592674017179</v>
       </c>
       <c r="D12">
-        <v>0.9720480601021541</v>
+        <v>1.001467512348704</v>
       </c>
       <c r="E12">
-        <v>1.019834369555463</v>
+        <v>0.998706285163923</v>
       </c>
       <c r="F12">
-        <v>0.9943764317764056</v>
+        <v>1.000675339243284</v>
       </c>
       <c r="G12">
-        <v>0.9943764317764056</v>
+        <v>1.000675339243284</v>
       </c>
       <c r="H12">
-        <v>1.034154455444146</v>
+        <v>0.9975986923977693</v>
       </c>
       <c r="I12">
-        <v>1.034154455444146</v>
+        <v>0.9975986923977693</v>
       </c>
       <c r="J12">
-        <v>0.9898419146454647</v>
+        <v>1.00055865271099</v>
       </c>
       <c r="K12">
-        <v>0.9943764317764056</v>
+        <v>1.000675339243284</v>
       </c>
       <c r="L12">
-        <v>0.9898419146454647</v>
+        <v>1.00055865271099</v>
       </c>
       <c r="M12">
-        <v>1.011998185044805</v>
+        <v>0.9990786725543799</v>
       </c>
       <c r="N12">
-        <v>1.011998185044805</v>
+        <v>0.9990786725543799</v>
       </c>
       <c r="O12">
-        <v>1.014610246548358</v>
+        <v>0.9989545434242276</v>
       </c>
       <c r="P12">
-        <v>1.006124267288672</v>
+        <v>0.9996108947840145</v>
       </c>
       <c r="Q12">
-        <v>1.006124267288672</v>
+        <v>0.9996108947840145</v>
       </c>
       <c r="R12">
-        <v>1.003187308410606</v>
+        <v>0.9998770058988318</v>
       </c>
       <c r="S12">
-        <v>1.003187308410606</v>
+        <v>0.9998770058988318</v>
       </c>
       <c r="T12">
-        <v>1.000236526896852</v>
+        <v>0.9999331926469751</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9975592918069214</v>
+        <v>1.001999349651015</v>
       </c>
       <c r="D13">
-        <v>0.9953656128732151</v>
+        <v>1.004901995230835</v>
       </c>
       <c r="E13">
-        <v>1.005200883011216</v>
+        <v>0.9956401036642557</v>
       </c>
       <c r="F13">
-        <v>0.9961875359280463</v>
+        <v>1.002313773331004</v>
       </c>
       <c r="G13">
-        <v>0.9961875359280463</v>
+        <v>1.002313773331004</v>
       </c>
       <c r="H13">
-        <v>1.010270888361227</v>
+        <v>0.9918861612268456</v>
       </c>
       <c r="I13">
-        <v>1.010270888361227</v>
+        <v>0.9918861612268456</v>
       </c>
       <c r="J13">
-        <v>0.9981238003632598</v>
+        <v>1.001869950722284</v>
       </c>
       <c r="K13">
-        <v>0.9961875359280463</v>
+        <v>1.002313773331004</v>
       </c>
       <c r="L13">
-        <v>0.9981238003632598</v>
+        <v>1.001869950722284</v>
       </c>
       <c r="M13">
-        <v>1.004197344362243</v>
+        <v>0.9968780559745647</v>
       </c>
       <c r="N13">
-        <v>1.004197344362243</v>
+        <v>0.9968780559745647</v>
       </c>
       <c r="O13">
-        <v>1.004531857245234</v>
+        <v>0.9964654052044617</v>
       </c>
       <c r="P13">
-        <v>1.001527408217511</v>
+        <v>0.9986899617600443</v>
       </c>
       <c r="Q13">
-        <v>1.001527408217511</v>
+        <v>0.9986899617600443</v>
       </c>
       <c r="R13">
-        <v>1.000192440145145</v>
+        <v>0.9995959146527842</v>
       </c>
       <c r="S13">
-        <v>1.000192440145145</v>
+        <v>0.9995959146527842</v>
       </c>
       <c r="T13">
-        <v>1.000451335390648</v>
+        <v>0.9997685556377065</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9911644975742899</v>
+        <v>1.003167571755888</v>
       </c>
       <c r="D14">
-        <v>0.9720494985868959</v>
+        <v>1.00783533182629</v>
       </c>
       <c r="E14">
-        <v>1.019833143436857</v>
+        <v>0.993086381625867</v>
       </c>
       <c r="F14">
-        <v>0.9943770292357982</v>
+        <v>1.003615161211602</v>
       </c>
       <c r="G14">
-        <v>0.9943770292357982</v>
+        <v>1.003615161211602</v>
       </c>
       <c r="H14">
-        <v>1.034152202205561</v>
+        <v>0.9871639385712538</v>
       </c>
       <c r="I14">
-        <v>1.034152202205561</v>
+        <v>0.9871639385712538</v>
       </c>
       <c r="J14">
-        <v>0.989842461027763</v>
+        <v>1.002983377862834</v>
       </c>
       <c r="K14">
-        <v>0.9943770292357982</v>
+        <v>1.003615161211602</v>
       </c>
       <c r="L14">
-        <v>0.989842461027763</v>
+        <v>1.002983377862834</v>
       </c>
       <c r="M14">
-        <v>1.011997331616662</v>
+        <v>0.995073658217044</v>
       </c>
       <c r="N14">
-        <v>1.011997331616662</v>
+        <v>0.995073658217044</v>
       </c>
       <c r="O14">
-        <v>1.01460926889006</v>
+        <v>0.9944112326866517</v>
       </c>
       <c r="P14">
-        <v>1.006123897489707</v>
+        <v>0.9979208258818965</v>
       </c>
       <c r="Q14">
-        <v>1.006123897489707</v>
+        <v>0.9979208258818965</v>
       </c>
       <c r="R14">
-        <v>1.00318718042623</v>
+        <v>0.9993444097143227</v>
       </c>
       <c r="S14">
-        <v>1.00318718042623</v>
+        <v>0.9993444097143227</v>
       </c>
       <c r="T14">
-        <v>1.000236472011194</v>
+        <v>0.9996419604756225</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9975594406234848</v>
+        <v>1.00113675796516</v>
       </c>
       <c r="D15">
-        <v>0.9953660289563483</v>
+        <v>1.002797874878896</v>
       </c>
       <c r="E15">
-        <v>1.005200557745764</v>
+        <v>0.9975201484286009</v>
       </c>
       <c r="F15">
-        <v>0.9961876684333794</v>
+        <v>1.001307640299948</v>
       </c>
       <c r="G15">
-        <v>0.9961876684333794</v>
+        <v>1.001307640299948</v>
       </c>
       <c r="H15">
-        <v>1.01027030309366</v>
+        <v>0.9953896840496047</v>
       </c>
       <c r="I15">
-        <v>1.01027030309366</v>
+        <v>0.9953896840496047</v>
       </c>
       <c r="J15">
-        <v>0.998123952393022</v>
+        <v>1.001066432697322</v>
       </c>
       <c r="K15">
-        <v>0.9961876684333794</v>
+        <v>1.001307640299948</v>
       </c>
       <c r="L15">
-        <v>0.998123952393022</v>
+        <v>1.001066432697322</v>
       </c>
       <c r="M15">
-        <v>1.004197127743341</v>
+        <v>0.9982280583734631</v>
       </c>
       <c r="N15">
-        <v>1.004197127743341</v>
+        <v>0.9982280583734631</v>
       </c>
       <c r="O15">
-        <v>1.004531604410815</v>
+        <v>0.9979920883918423</v>
       </c>
       <c r="P15">
-        <v>1.001527307973354</v>
+        <v>0.9992545856822913</v>
       </c>
       <c r="Q15">
-        <v>1.001527307973354</v>
+        <v>0.9992545856822913</v>
       </c>
       <c r="R15">
-        <v>1.00019239808836</v>
+        <v>0.9997678493367055</v>
       </c>
       <c r="S15">
-        <v>1.00019239808836</v>
+        <v>0.9997678493367055</v>
       </c>
       <c r="T15">
-        <v>1.00045132520761</v>
+        <v>0.9998697563865884</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.022143028125798</v>
+        <v>1.002194394617832</v>
       </c>
       <c r="D16">
-        <v>1.055049210078562</v>
+        <v>1.005402908655259</v>
       </c>
       <c r="E16">
-        <v>0.951645247465613</v>
+        <v>0.9952127271496949</v>
       </c>
       <c r="F16">
-        <v>1.025069879395839</v>
+        <v>1.002522882961214</v>
       </c>
       <c r="G16">
-        <v>1.025069879395839</v>
+        <v>1.002522882961214</v>
       </c>
       <c r="H16">
-        <v>0.9103438822704439</v>
+        <v>0.9911007653151394</v>
       </c>
       <c r="I16">
-        <v>0.9103438822704439</v>
+        <v>0.9911007653151394</v>
       </c>
       <c r="J16">
-        <v>1.020938541899746</v>
+        <v>1.002059210636925</v>
       </c>
       <c r="K16">
-        <v>1.025069879395839</v>
+        <v>1.002522882961214</v>
       </c>
       <c r="L16">
-        <v>1.020938541899746</v>
+        <v>1.002059210636925</v>
       </c>
       <c r="M16">
-        <v>0.965641212085095</v>
+        <v>0.9965799879760322</v>
       </c>
       <c r="N16">
-        <v>0.965641212085095</v>
+        <v>0.9965799879760322</v>
       </c>
       <c r="O16">
-        <v>0.9609758905452677</v>
+        <v>0.9961242343672531</v>
       </c>
       <c r="P16">
-        <v>0.9854507678553431</v>
+        <v>0.9985609529710929</v>
       </c>
       <c r="Q16">
-        <v>0.9854507678553431</v>
+        <v>0.9985609529710929</v>
       </c>
       <c r="R16">
-        <v>0.9953555457404673</v>
+        <v>0.9995514354686232</v>
       </c>
       <c r="S16">
-        <v>0.9953555457404673</v>
+        <v>0.9995514354686232</v>
       </c>
       <c r="T16">
-        <v>0.9975316315393338</v>
+        <v>0.9997488148893442</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.018054338730339</v>
+        <v>1.004203263420819</v>
       </c>
       <c r="D17">
-        <v>1.046103199602777</v>
+        <v>1.010386790092645</v>
       </c>
       <c r="E17">
-        <v>0.9604642148216223</v>
+        <v>0.9908267993602869</v>
       </c>
       <c r="F17">
-        <v>1.019548699044182</v>
+        <v>1.004804824934492</v>
       </c>
       <c r="G17">
-        <v>1.019548699044182</v>
+        <v>1.004804824934492</v>
       </c>
       <c r="H17">
-        <v>0.9272291858158593</v>
+        <v>0.9829641557470942</v>
       </c>
       <c r="I17">
-        <v>0.9272291858158593</v>
+        <v>0.9829641557470942</v>
       </c>
       <c r="J17">
-        <v>1.017439362483604</v>
+        <v>1.003955698333054</v>
       </c>
       <c r="K17">
-        <v>1.019548699044182</v>
+        <v>1.004804824934492</v>
       </c>
       <c r="L17">
-        <v>1.017439362483604</v>
+        <v>1.003955698333054</v>
       </c>
       <c r="M17">
-        <v>0.9723342741497314</v>
+        <v>0.9934599270400744</v>
       </c>
       <c r="N17">
-        <v>0.9723342741497314</v>
+        <v>0.9934599270400744</v>
       </c>
       <c r="O17">
-        <v>0.9683775877070283</v>
+        <v>0.9925822178134786</v>
       </c>
       <c r="P17">
-        <v>0.988072415781215</v>
+        <v>0.9972415596715468</v>
       </c>
       <c r="Q17">
-        <v>0.988072415781215</v>
+        <v>0.9972415596715468</v>
       </c>
       <c r="R17">
-        <v>0.9959414865969567</v>
+        <v>0.9991323759872831</v>
       </c>
       <c r="S17">
-        <v>0.9959414865969567</v>
+        <v>0.9991323759872831</v>
       </c>
       <c r="T17">
-        <v>0.9981398334163972</v>
+        <v>0.9995235886480653</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.009836126651964</v>
+        <v>1.00616375338532</v>
       </c>
       <c r="D18">
-        <v>1.028061267429091</v>
+        <v>1.015251796213469</v>
       </c>
       <c r="E18">
-        <v>0.9781956745896431</v>
+        <v>0.9865463891786359</v>
       </c>
       <c r="F18">
-        <v>1.008495531978544</v>
+        <v>1.007030988946701</v>
       </c>
       <c r="G18">
-        <v>1.008495531978544</v>
+        <v>1.007030988946701</v>
       </c>
       <c r="H18">
-        <v>0.9611520048364859</v>
+        <v>0.9750237945211493</v>
       </c>
       <c r="I18">
-        <v>0.9611520048364859</v>
+        <v>0.9750237945211493</v>
       </c>
       <c r="J18">
-        <v>1.010387813500399</v>
+        <v>1.00580685930035</v>
       </c>
       <c r="K18">
-        <v>1.008495531978544</v>
+        <v>1.007030988946701</v>
       </c>
       <c r="L18">
-        <v>1.010387813500399</v>
+        <v>1.00580685930035</v>
       </c>
       <c r="M18">
-        <v>0.9857699091684422</v>
+        <v>0.9904153269107498</v>
       </c>
       <c r="N18">
-        <v>0.9857699091684422</v>
+        <v>0.9904153269107498</v>
       </c>
       <c r="O18">
-        <v>0.9832451643088426</v>
+        <v>0.9891256810000453</v>
       </c>
       <c r="P18">
-        <v>0.9933451167718094</v>
+        <v>0.9959538809227336</v>
       </c>
       <c r="Q18">
-        <v>0.9933451167718094</v>
+        <v>0.9959538809227336</v>
       </c>
       <c r="R18">
-        <v>0.997132720573493</v>
+        <v>0.9987231579287256</v>
       </c>
       <c r="S18">
-        <v>0.997132720573493</v>
+        <v>0.9987231579287256</v>
       </c>
       <c r="T18">
-        <v>0.9993547364976877</v>
+        <v>0.9993039302576044</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.010705535767263</v>
+        <v>1.000079156592177</v>
       </c>
       <c r="D19">
-        <v>1.031146283251133</v>
+        <v>1.000230065678605</v>
       </c>
       <c r="E19">
-        <v>0.9762139745511852</v>
+        <v>0.9998241491642607</v>
       </c>
       <c r="F19">
-        <v>1.008803862078169</v>
+        <v>1.000065256986688</v>
       </c>
       <c r="G19">
-        <v>1.008803862078169</v>
+        <v>1.000065256986688</v>
       </c>
       <c r="H19">
-        <v>0.9578821642855834</v>
+        <v>0.9996885264340043</v>
       </c>
       <c r="I19">
-        <v>0.9578821642855834</v>
+        <v>0.9996885264340043</v>
       </c>
       <c r="J19">
-        <v>1.011488127195284</v>
+        <v>1.000084874448225</v>
       </c>
       <c r="K19">
-        <v>1.008803862078169</v>
+        <v>1.000065256986688</v>
       </c>
       <c r="L19">
-        <v>1.011488127195284</v>
+        <v>1.000084874448225</v>
       </c>
       <c r="M19">
-        <v>0.9846851457404335</v>
+        <v>0.9998867004411147</v>
       </c>
       <c r="N19">
-        <v>0.9846851457404335</v>
+        <v>0.9998867004411147</v>
       </c>
       <c r="O19">
-        <v>0.981861422010684</v>
+        <v>0.9998658500154968</v>
       </c>
       <c r="P19">
-        <v>0.992724717853012</v>
+        <v>0.9999462192896393</v>
       </c>
       <c r="Q19">
-        <v>0.992724717853012</v>
+        <v>0.9999462192896393</v>
       </c>
       <c r="R19">
-        <v>0.9967445039093012</v>
+        <v>0.9999759787139015</v>
       </c>
       <c r="S19">
-        <v>0.9967445039093012</v>
+        <v>0.9999759787139015</v>
       </c>
       <c r="T19">
-        <v>0.9993733245214361</v>
+        <v>0.9999953382173267</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000003535734546</v>
+        <v>1.000201973825122</v>
       </c>
       <c r="D20">
-        <v>1.000030352218656</v>
+        <v>1.00058283521923</v>
       </c>
       <c r="E20">
-        <v>0.999990340080519</v>
+        <v>0.9995516782975582</v>
       </c>
       <c r="F20">
-        <v>0.9999882151467632</v>
+        <v>1.000169587480294</v>
       </c>
       <c r="G20">
-        <v>0.9999882151467632</v>
+        <v>1.000169587480294</v>
       </c>
       <c r="H20">
-        <v>0.9999915360004145</v>
+        <v>0.9992041046004964</v>
       </c>
       <c r="I20">
-        <v>0.9999915360004145</v>
+        <v>0.9992041046004964</v>
       </c>
       <c r="J20">
-        <v>1.000009838532548</v>
+        <v>1.000215298999056</v>
       </c>
       <c r="K20">
-        <v>0.9999882151467632</v>
+        <v>1.000169587480294</v>
       </c>
       <c r="L20">
-        <v>1.000009838532548</v>
+        <v>1.000215298999056</v>
       </c>
       <c r="M20">
-        <v>1.000000687266481</v>
+        <v>0.9997097017997763</v>
       </c>
       <c r="N20">
-        <v>1.000000687266481</v>
+        <v>0.9997097017997763</v>
       </c>
       <c r="O20">
-        <v>0.9999972382044936</v>
+        <v>0.9996570272990368</v>
       </c>
       <c r="P20">
-        <v>0.9999965298932417</v>
+        <v>0.9998629970266154</v>
       </c>
       <c r="Q20">
-        <v>0.9999965298932416</v>
+        <v>0.9998629970266154</v>
       </c>
       <c r="R20">
-        <v>0.999994451206622</v>
+        <v>0.999939644640035</v>
       </c>
       <c r="S20">
-        <v>0.999994451206622</v>
+        <v>0.999939644640035</v>
       </c>
       <c r="T20">
-        <v>1.000002302952241</v>
+        <v>0.9999875797369594</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000098075461255</v>
+        <v>1.000283316543672</v>
       </c>
       <c r="D21">
-        <v>1.000266359156377</v>
+        <v>1.000807550247895</v>
       </c>
       <c r="E21">
-        <v>0.9997838018786067</v>
+        <v>0.9993720224725388</v>
       </c>
       <c r="F21">
-        <v>1.000094538121234</v>
+        <v>1.000245220757259</v>
       </c>
       <c r="G21">
-        <v>1.000094538121234</v>
+        <v>1.000245220757259</v>
       </c>
       <c r="H21">
-        <v>0.999609013479519</v>
+        <v>0.9988808486410404</v>
       </c>
       <c r="I21">
-        <v>0.999609013479519</v>
+        <v>0.9988808486410404</v>
       </c>
       <c r="J21">
-        <v>1.00009952926596</v>
+        <v>1.000298991415224</v>
       </c>
       <c r="K21">
-        <v>1.000094538121234</v>
+        <v>1.000245220757259</v>
       </c>
       <c r="L21">
-        <v>1.00009952926596</v>
+        <v>1.000298991415224</v>
       </c>
       <c r="M21">
-        <v>0.9998542713727394</v>
+        <v>0.9995899200281324</v>
       </c>
       <c r="N21">
-        <v>0.9998542713727394</v>
+        <v>0.9995899200281324</v>
       </c>
       <c r="O21">
-        <v>0.999830781541362</v>
+        <v>0.9995172875096011</v>
       </c>
       <c r="P21">
-        <v>0.9999343602889045</v>
+        <v>0.999808353604508</v>
       </c>
       <c r="Q21">
-        <v>0.9999343602889045</v>
+        <v>0.9998083536045078</v>
       </c>
       <c r="R21">
-        <v>0.999974404746987</v>
+        <v>0.9999175703926957</v>
       </c>
       <c r="S21">
-        <v>0.999974404746987</v>
+        <v>0.9999175703926957</v>
       </c>
       <c r="T21">
-        <v>0.9999918862271585</v>
+        <v>0.999981325012938</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000348712530972</v>
+        <v>1.000610299760883</v>
       </c>
       <c r="D22">
-        <v>1.000882315493975</v>
+        <v>1.001750965632209</v>
       </c>
       <c r="E22">
-        <v>0.9992371198472362</v>
+        <v>0.9986462283784562</v>
       </c>
       <c r="F22">
-        <v>1.000383528063492</v>
+        <v>1.000519897622725</v>
       </c>
       <c r="G22">
-        <v>1.000383528063492</v>
+        <v>1.000519897622725</v>
       </c>
       <c r="H22">
-        <v>0.9985922656537026</v>
+        <v>0.9975922890858193</v>
       </c>
       <c r="I22">
-        <v>0.9985922656537026</v>
+        <v>0.9975922890858193</v>
       </c>
       <c r="J22">
-        <v>1.000334382860835</v>
+        <v>1.000647499138433</v>
       </c>
       <c r="K22">
-        <v>1.000383528063492</v>
+        <v>1.000519897622725</v>
       </c>
       <c r="L22">
-        <v>1.000334382860835</v>
+        <v>1.000647499138433</v>
       </c>
       <c r="M22">
-        <v>0.9994633242572688</v>
+        <v>0.9991198941121263</v>
       </c>
       <c r="N22">
-        <v>0.9994633242572688</v>
+        <v>0.9991198941121263</v>
       </c>
       <c r="O22">
-        <v>0.9993879227872579</v>
+        <v>0.9989620055342363</v>
       </c>
       <c r="P22">
-        <v>0.9997700588593433</v>
+        <v>0.9995865619489924</v>
       </c>
       <c r="Q22">
-        <v>0.9997700588593433</v>
+        <v>0.9995865619489924</v>
       </c>
       <c r="R22">
-        <v>0.9999234261603805</v>
+        <v>0.9998198958674255</v>
       </c>
       <c r="S22">
-        <v>0.9999234261603805</v>
+        <v>0.9998198958674255</v>
       </c>
       <c r="T22">
-        <v>0.9999630540750356</v>
+        <v>0.9999611966030875</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.001013640229758</v>
+      </c>
+      <c r="D23">
+        <v>1.002883401761529</v>
+      </c>
+      <c r="E23">
+        <v>0.9977537600162266</v>
+      </c>
+      <c r="F23">
+        <v>1.000881626272238</v>
+      </c>
+      <c r="G23">
+        <v>1.000881626272238</v>
+      </c>
+      <c r="H23">
+        <v>0.995994336907705</v>
+      </c>
+      <c r="I23">
+        <v>0.995994336907705</v>
+      </c>
+      <c r="J23">
+        <v>1.00106796497446</v>
+      </c>
+      <c r="K23">
+        <v>1.000881626272238</v>
+      </c>
+      <c r="L23">
+        <v>1.00106796497446</v>
+      </c>
+      <c r="M23">
+        <v>0.9985311509410824</v>
+      </c>
+      <c r="N23">
+        <v>0.9985311509410824</v>
+      </c>
+      <c r="O23">
+        <v>0.9982720206327972</v>
+      </c>
+      <c r="P23">
+        <v>0.9993146427181342</v>
+      </c>
+      <c r="Q23">
+        <v>0.9993146427181342</v>
+      </c>
+      <c r="R23">
+        <v>0.9997063886066599</v>
+      </c>
+      <c r="S23">
+        <v>0.9997063886066599</v>
+      </c>
+      <c r="T23">
+        <v>0.9999324550269861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9911639298574813</v>
+      </c>
+      <c r="D24">
+        <v>0.9720480601021541</v>
+      </c>
+      <c r="E24">
+        <v>1.019834369555463</v>
+      </c>
+      <c r="F24">
+        <v>0.9943764317764056</v>
+      </c>
+      <c r="G24">
+        <v>0.9943764317764056</v>
+      </c>
+      <c r="H24">
+        <v>1.034154455444146</v>
+      </c>
+      <c r="I24">
+        <v>1.034154455444146</v>
+      </c>
+      <c r="J24">
+        <v>0.9898419146454647</v>
+      </c>
+      <c r="K24">
+        <v>0.9943764317764056</v>
+      </c>
+      <c r="L24">
+        <v>0.9898419146454647</v>
+      </c>
+      <c r="M24">
+        <v>1.011998185044805</v>
+      </c>
+      <c r="N24">
+        <v>1.011998185044805</v>
+      </c>
+      <c r="O24">
+        <v>1.014610246548358</v>
+      </c>
+      <c r="P24">
+        <v>1.006124267288672</v>
+      </c>
+      <c r="Q24">
+        <v>1.006124267288672</v>
+      </c>
+      <c r="R24">
+        <v>1.003187308410606</v>
+      </c>
+      <c r="S24">
+        <v>1.003187308410606</v>
+      </c>
+      <c r="T24">
+        <v>1.000236526896852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9975592918069214</v>
+      </c>
+      <c r="D25">
+        <v>0.9953656128732151</v>
+      </c>
+      <c r="E25">
+        <v>1.005200883011216</v>
+      </c>
+      <c r="F25">
+        <v>0.9961875359280463</v>
+      </c>
+      <c r="G25">
+        <v>0.9961875359280463</v>
+      </c>
+      <c r="H25">
+        <v>1.010270888361227</v>
+      </c>
+      <c r="I25">
+        <v>1.010270888361227</v>
+      </c>
+      <c r="J25">
+        <v>0.9981238003632598</v>
+      </c>
+      <c r="K25">
+        <v>0.9961875359280463</v>
+      </c>
+      <c r="L25">
+        <v>0.9981238003632598</v>
+      </c>
+      <c r="M25">
+        <v>1.004197344362243</v>
+      </c>
+      <c r="N25">
+        <v>1.004197344362243</v>
+      </c>
+      <c r="O25">
+        <v>1.004531857245234</v>
+      </c>
+      <c r="P25">
+        <v>1.001527408217511</v>
+      </c>
+      <c r="Q25">
+        <v>1.001527408217511</v>
+      </c>
+      <c r="R25">
+        <v>1.000192440145145</v>
+      </c>
+      <c r="S25">
+        <v>1.000192440145145</v>
+      </c>
+      <c r="T25">
+        <v>1.000451335390648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9911644975742899</v>
+      </c>
+      <c r="D26">
+        <v>0.9720494985868959</v>
+      </c>
+      <c r="E26">
+        <v>1.019833143436857</v>
+      </c>
+      <c r="F26">
+        <v>0.9943770292357982</v>
+      </c>
+      <c r="G26">
+        <v>0.9943770292357982</v>
+      </c>
+      <c r="H26">
+        <v>1.034152202205561</v>
+      </c>
+      <c r="I26">
+        <v>1.034152202205561</v>
+      </c>
+      <c r="J26">
+        <v>0.989842461027763</v>
+      </c>
+      <c r="K26">
+        <v>0.9943770292357982</v>
+      </c>
+      <c r="L26">
+        <v>0.989842461027763</v>
+      </c>
+      <c r="M26">
+        <v>1.011997331616662</v>
+      </c>
+      <c r="N26">
+        <v>1.011997331616662</v>
+      </c>
+      <c r="O26">
+        <v>1.01460926889006</v>
+      </c>
+      <c r="P26">
+        <v>1.006123897489707</v>
+      </c>
+      <c r="Q26">
+        <v>1.006123897489707</v>
+      </c>
+      <c r="R26">
+        <v>1.00318718042623</v>
+      </c>
+      <c r="S26">
+        <v>1.00318718042623</v>
+      </c>
+      <c r="T26">
+        <v>1.000236472011194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9975594406234848</v>
+      </c>
+      <c r="D27">
+        <v>0.9953660289563483</v>
+      </c>
+      <c r="E27">
+        <v>1.005200557745764</v>
+      </c>
+      <c r="F27">
+        <v>0.9961876684333794</v>
+      </c>
+      <c r="G27">
+        <v>0.9961876684333794</v>
+      </c>
+      <c r="H27">
+        <v>1.01027030309366</v>
+      </c>
+      <c r="I27">
+        <v>1.01027030309366</v>
+      </c>
+      <c r="J27">
+        <v>0.998123952393022</v>
+      </c>
+      <c r="K27">
+        <v>0.9961876684333794</v>
+      </c>
+      <c r="L27">
+        <v>0.998123952393022</v>
+      </c>
+      <c r="M27">
+        <v>1.004197127743341</v>
+      </c>
+      <c r="N27">
+        <v>1.004197127743341</v>
+      </c>
+      <c r="O27">
+        <v>1.004531604410815</v>
+      </c>
+      <c r="P27">
+        <v>1.001527307973354</v>
+      </c>
+      <c r="Q27">
+        <v>1.001527307973354</v>
+      </c>
+      <c r="R27">
+        <v>1.00019239808836</v>
+      </c>
+      <c r="S27">
+        <v>1.00019239808836</v>
+      </c>
+      <c r="T27">
+        <v>1.00045132520761</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.022143028125798</v>
+      </c>
+      <c r="D28">
+        <v>1.055049210078562</v>
+      </c>
+      <c r="E28">
+        <v>0.951645247465613</v>
+      </c>
+      <c r="F28">
+        <v>1.025069879395839</v>
+      </c>
+      <c r="G28">
+        <v>1.025069879395839</v>
+      </c>
+      <c r="H28">
+        <v>0.9103438822704439</v>
+      </c>
+      <c r="I28">
+        <v>0.9103438822704439</v>
+      </c>
+      <c r="J28">
+        <v>1.020938541899746</v>
+      </c>
+      <c r="K28">
+        <v>1.025069879395839</v>
+      </c>
+      <c r="L28">
+        <v>1.020938541899746</v>
+      </c>
+      <c r="M28">
+        <v>0.965641212085095</v>
+      </c>
+      <c r="N28">
+        <v>0.965641212085095</v>
+      </c>
+      <c r="O28">
+        <v>0.9609758905452677</v>
+      </c>
+      <c r="P28">
+        <v>0.9854507678553431</v>
+      </c>
+      <c r="Q28">
+        <v>0.9854507678553431</v>
+      </c>
+      <c r="R28">
+        <v>0.9953555457404673</v>
+      </c>
+      <c r="S28">
+        <v>0.9953555457404673</v>
+      </c>
+      <c r="T28">
+        <v>0.9975316315393338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.018054338730339</v>
+      </c>
+      <c r="D29">
+        <v>1.046103199602777</v>
+      </c>
+      <c r="E29">
+        <v>0.9604642148216223</v>
+      </c>
+      <c r="F29">
+        <v>1.019548699044182</v>
+      </c>
+      <c r="G29">
+        <v>1.019548699044182</v>
+      </c>
+      <c r="H29">
+        <v>0.9272291858158593</v>
+      </c>
+      <c r="I29">
+        <v>0.9272291858158593</v>
+      </c>
+      <c r="J29">
+        <v>1.017439362483604</v>
+      </c>
+      <c r="K29">
+        <v>1.019548699044182</v>
+      </c>
+      <c r="L29">
+        <v>1.017439362483604</v>
+      </c>
+      <c r="M29">
+        <v>0.9723342741497314</v>
+      </c>
+      <c r="N29">
+        <v>0.9723342741497314</v>
+      </c>
+      <c r="O29">
+        <v>0.9683775877070283</v>
+      </c>
+      <c r="P29">
+        <v>0.988072415781215</v>
+      </c>
+      <c r="Q29">
+        <v>0.988072415781215</v>
+      </c>
+      <c r="R29">
+        <v>0.9959414865969567</v>
+      </c>
+      <c r="S29">
+        <v>0.9959414865969567</v>
+      </c>
+      <c r="T29">
+        <v>0.9981398334163972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.009836126651964</v>
+      </c>
+      <c r="D30">
+        <v>1.028061267429091</v>
+      </c>
+      <c r="E30">
+        <v>0.9781956745896431</v>
+      </c>
+      <c r="F30">
+        <v>1.008495531978544</v>
+      </c>
+      <c r="G30">
+        <v>1.008495531978544</v>
+      </c>
+      <c r="H30">
+        <v>0.9611520048364859</v>
+      </c>
+      <c r="I30">
+        <v>0.9611520048364859</v>
+      </c>
+      <c r="J30">
+        <v>1.010387813500399</v>
+      </c>
+      <c r="K30">
+        <v>1.008495531978544</v>
+      </c>
+      <c r="L30">
+        <v>1.010387813500399</v>
+      </c>
+      <c r="M30">
+        <v>0.9857699091684422</v>
+      </c>
+      <c r="N30">
+        <v>0.9857699091684422</v>
+      </c>
+      <c r="O30">
+        <v>0.9832451643088426</v>
+      </c>
+      <c r="P30">
+        <v>0.9933451167718094</v>
+      </c>
+      <c r="Q30">
+        <v>0.9933451167718094</v>
+      </c>
+      <c r="R30">
+        <v>0.997132720573493</v>
+      </c>
+      <c r="S30">
+        <v>0.997132720573493</v>
+      </c>
+      <c r="T30">
+        <v>0.9993547364976877</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.010705535767263</v>
+      </c>
+      <c r="D31">
+        <v>1.031146283251133</v>
+      </c>
+      <c r="E31">
+        <v>0.9762139745511852</v>
+      </c>
+      <c r="F31">
+        <v>1.008803862078169</v>
+      </c>
+      <c r="G31">
+        <v>1.008803862078169</v>
+      </c>
+      <c r="H31">
+        <v>0.9578821642855834</v>
+      </c>
+      <c r="I31">
+        <v>0.9578821642855834</v>
+      </c>
+      <c r="J31">
+        <v>1.011488127195284</v>
+      </c>
+      <c r="K31">
+        <v>1.008803862078169</v>
+      </c>
+      <c r="L31">
+        <v>1.011488127195284</v>
+      </c>
+      <c r="M31">
+        <v>0.9846851457404335</v>
+      </c>
+      <c r="N31">
+        <v>0.9846851457404335</v>
+      </c>
+      <c r="O31">
+        <v>0.981861422010684</v>
+      </c>
+      <c r="P31">
+        <v>0.992724717853012</v>
+      </c>
+      <c r="Q31">
+        <v>0.992724717853012</v>
+      </c>
+      <c r="R31">
+        <v>0.9967445039093012</v>
+      </c>
+      <c r="S31">
+        <v>0.9967445039093012</v>
+      </c>
+      <c r="T31">
+        <v>0.9993733245214361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.026265480821918</v>
+      </c>
+      <c r="D32">
+        <v>1.064095184931507</v>
+      </c>
+      <c r="E32">
+        <v>0.9427511075342468</v>
+      </c>
+      <c r="F32">
+        <v>1.030617554794521</v>
+      </c>
+      <c r="G32">
+        <v>1.030617554794521</v>
+      </c>
+      <c r="H32">
+        <v>0.8933262179452061</v>
+      </c>
+      <c r="I32">
+        <v>0.8933262179452061</v>
+      </c>
+      <c r="J32">
+        <v>1.024474475342465</v>
+      </c>
+      <c r="K32">
+        <v>1.030617554794521</v>
+      </c>
+      <c r="L32">
+        <v>1.024474475342465</v>
+      </c>
+      <c r="M32">
+        <v>0.9589003466438355</v>
+      </c>
+      <c r="N32">
+        <v>0.9589003466438355</v>
+      </c>
+      <c r="O32">
+        <v>0.9535172669406392</v>
+      </c>
+      <c r="P32">
+        <v>0.9828060826940638</v>
+      </c>
+      <c r="Q32">
+        <v>0.982806082694064</v>
+      </c>
+      <c r="R32">
+        <v>0.9947589507191781</v>
+      </c>
+      <c r="S32">
+        <v>0.9947589507191781</v>
+      </c>
+      <c r="T32">
+        <v>0.9969216702283106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.011611823157895</v>
+      </c>
+      <c r="D33">
+        <v>1.033069447368421</v>
+      </c>
+      <c r="E33">
+        <v>0.9742645636842104</v>
+      </c>
+      <c r="F33">
+        <v>1.010071437368421</v>
+      </c>
+      <c r="G33">
+        <v>1.010071437368421</v>
+      </c>
+      <c r="H33">
+        <v>0.954123197368421</v>
+      </c>
+      <c r="I33">
+        <v>0.954123197368421</v>
+      </c>
+      <c r="J33">
+        <v>1.012245740526316</v>
+      </c>
+      <c r="K33">
+        <v>1.010071437368421</v>
+      </c>
+      <c r="L33">
+        <v>1.012245740526316</v>
+      </c>
+      <c r="M33">
+        <v>0.9831844689473684</v>
+      </c>
+      <c r="N33">
+        <v>0.9831844689473684</v>
+      </c>
+      <c r="O33">
+        <v>0.9802111671929824</v>
+      </c>
+      <c r="P33">
+        <v>0.9921467917543859</v>
+      </c>
+      <c r="Q33">
+        <v>0.9921467917543859</v>
+      </c>
+      <c r="R33">
+        <v>0.9966279531578947</v>
+      </c>
+      <c r="S33">
+        <v>0.9966279531578947</v>
+      </c>
+      <c r="T33">
+        <v>0.9992310349122806</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.011611417368421</v>
+      </c>
+      <c r="D34">
+        <v>1.033068419473684</v>
+      </c>
+      <c r="E34">
+        <v>0.9742654689473684</v>
+      </c>
+      <c r="F34">
+        <v>1.010070964210527</v>
+      </c>
+      <c r="G34">
+        <v>1.010070964210527</v>
+      </c>
+      <c r="H34">
+        <v>0.9541248657894736</v>
+      </c>
+      <c r="I34">
+        <v>0.9541248657894736</v>
+      </c>
+      <c r="J34">
+        <v>1.012245349473684</v>
+      </c>
+      <c r="K34">
+        <v>1.010070964210527</v>
+      </c>
+      <c r="L34">
+        <v>1.012245349473684</v>
+      </c>
+      <c r="M34">
+        <v>0.9831851076315788</v>
+      </c>
+      <c r="N34">
+        <v>0.9831851076315788</v>
+      </c>
+      <c r="O34">
+        <v>0.980211894736842</v>
+      </c>
+      <c r="P34">
+        <v>0.9921470598245614</v>
+      </c>
+      <c r="Q34">
+        <v>0.9921470598245614</v>
+      </c>
+      <c r="R34">
+        <v>0.9966280359210526</v>
+      </c>
+      <c r="S34">
+        <v>0.9966280359210526</v>
+      </c>
+      <c r="T34">
+        <v>0.9992310808771929</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.038912927255321</v>
+      </c>
+      <c r="D35">
+        <v>1.114210676106502</v>
+      </c>
+      <c r="E35">
+        <v>0.9134516505879309</v>
+      </c>
+      <c r="F35">
+        <v>1.031269553004319</v>
+      </c>
+      <c r="G35">
+        <v>1.031269553004319</v>
+      </c>
+      <c r="H35">
+        <v>0.847179073998946</v>
+      </c>
+      <c r="I35">
+        <v>0.847179073998946</v>
+      </c>
+      <c r="J35">
+        <v>1.042058373649161</v>
+      </c>
+      <c r="K35">
+        <v>1.031269553004319</v>
+      </c>
+      <c r="L35">
+        <v>1.042058373649161</v>
+      </c>
+      <c r="M35">
+        <v>0.9446187238240537</v>
+      </c>
+      <c r="N35">
+        <v>0.9446187238240537</v>
+      </c>
+      <c r="O35">
+        <v>0.9342296994120126</v>
+      </c>
+      <c r="P35">
+        <v>0.9735023335508087</v>
+      </c>
+      <c r="Q35">
+        <v>0.9735023335508087</v>
+      </c>
+      <c r="R35">
+        <v>0.9879441384141863</v>
+      </c>
+      <c r="S35">
+        <v>0.9879441384141863</v>
+      </c>
+      <c r="T35">
+        <v>0.9978470424336967</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000003535734546</v>
+      </c>
+      <c r="D36">
+        <v>1.000030352218656</v>
+      </c>
+      <c r="E36">
+        <v>0.999990340080519</v>
+      </c>
+      <c r="F36">
+        <v>0.9999882151467632</v>
+      </c>
+      <c r="G36">
+        <v>0.9999882151467632</v>
+      </c>
+      <c r="H36">
+        <v>0.9999915360004145</v>
+      </c>
+      <c r="I36">
+        <v>0.9999915360004145</v>
+      </c>
+      <c r="J36">
+        <v>1.000009838532548</v>
+      </c>
+      <c r="K36">
+        <v>0.9999882151467632</v>
+      </c>
+      <c r="L36">
+        <v>1.000009838532548</v>
+      </c>
+      <c r="M36">
+        <v>1.000000687266481</v>
+      </c>
+      <c r="N36">
+        <v>1.000000687266481</v>
+      </c>
+      <c r="O36">
+        <v>0.9999972382044936</v>
+      </c>
+      <c r="P36">
+        <v>0.9999965298932417</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999965298932416</v>
+      </c>
+      <c r="R36">
+        <v>0.999994451206622</v>
+      </c>
+      <c r="S36">
+        <v>0.999994451206622</v>
+      </c>
+      <c r="T36">
+        <v>1.000002302952241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000098075461255</v>
+      </c>
+      <c r="D37">
+        <v>1.000266359156377</v>
+      </c>
+      <c r="E37">
+        <v>0.9997838018786067</v>
+      </c>
+      <c r="F37">
+        <v>1.000094538121234</v>
+      </c>
+      <c r="G37">
+        <v>1.000094538121234</v>
+      </c>
+      <c r="H37">
+        <v>0.999609013479519</v>
+      </c>
+      <c r="I37">
+        <v>0.999609013479519</v>
+      </c>
+      <c r="J37">
+        <v>1.00009952926596</v>
+      </c>
+      <c r="K37">
+        <v>1.000094538121234</v>
+      </c>
+      <c r="L37">
+        <v>1.00009952926596</v>
+      </c>
+      <c r="M37">
+        <v>0.9998542713727394</v>
+      </c>
+      <c r="N37">
+        <v>0.9998542713727394</v>
+      </c>
+      <c r="O37">
+        <v>0.999830781541362</v>
+      </c>
+      <c r="P37">
+        <v>0.9999343602889045</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999343602889045</v>
+      </c>
+      <c r="R37">
+        <v>0.999974404746987</v>
+      </c>
+      <c r="S37">
+        <v>0.999974404746987</v>
+      </c>
+      <c r="T37">
+        <v>0.9999918862271585</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000348712530972</v>
+      </c>
+      <c r="D38">
+        <v>1.000882315493975</v>
+      </c>
+      <c r="E38">
+        <v>0.9992371198472362</v>
+      </c>
+      <c r="F38">
+        <v>1.000383528063492</v>
+      </c>
+      <c r="G38">
+        <v>1.000383528063492</v>
+      </c>
+      <c r="H38">
+        <v>0.9985922656537026</v>
+      </c>
+      <c r="I38">
+        <v>0.9985922656537026</v>
+      </c>
+      <c r="J38">
+        <v>1.000334382860835</v>
+      </c>
+      <c r="K38">
+        <v>1.000383528063492</v>
+      </c>
+      <c r="L38">
+        <v>1.000334382860835</v>
+      </c>
+      <c r="M38">
+        <v>0.9994633242572688</v>
+      </c>
+      <c r="N38">
+        <v>0.9994633242572688</v>
+      </c>
+      <c r="O38">
+        <v>0.9993879227872579</v>
+      </c>
+      <c r="P38">
+        <v>0.9997700588593433</v>
+      </c>
+      <c r="Q38">
+        <v>0.9997700588593433</v>
+      </c>
+      <c r="R38">
+        <v>0.9999234261603805</v>
+      </c>
+      <c r="S38">
+        <v>0.9999234261603805</v>
+      </c>
+      <c r="T38">
+        <v>0.9999630540750356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000820507555888</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.002008852548077</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9982110049623568</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000951652953056</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000951652953056</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9966693854256402</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9966693854256402</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000766538970727</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000951652953056</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000766538970727</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9987179621981837</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9987179621981837</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.998548976452908</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999462525783141</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.999462525783141</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9998348075756197</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9998348075756197</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999046570692908</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.003720505617115</v>
+      </c>
+      <c r="D40">
+        <v>1.009455960600157</v>
+      </c>
+      <c r="E40">
+        <v>0.9918567738088396</v>
+      </c>
+      <c r="F40">
+        <v>1.004061134608312</v>
+      </c>
+      <c r="G40">
+        <v>1.004061134608312</v>
+      </c>
+      <c r="H40">
+        <v>0.9849918222247689</v>
+      </c>
+      <c r="I40">
+        <v>0.9849918222247689</v>
+      </c>
+      <c r="J40">
+        <v>1.003580327990471</v>
+      </c>
+      <c r="K40">
+        <v>1.004061134608312</v>
+      </c>
+      <c r="L40">
+        <v>1.003580327990471</v>
+      </c>
+      <c r="M40">
+        <v>0.9942860751076198</v>
+      </c>
+      <c r="N40">
+        <v>0.9942860751076198</v>
+      </c>
+      <c r="O40">
+        <v>0.9934763080080264</v>
+      </c>
+      <c r="P40">
+        <v>0.9975444282745173</v>
+      </c>
+      <c r="Q40">
+        <v>0.9975444282745173</v>
+      </c>
+      <c r="R40">
+        <v>0.999173604857966</v>
+      </c>
+      <c r="S40">
+        <v>0.999173604857966</v>
+      </c>
+      <c r="T40">
+        <v>0.999611087474944</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9978340720199025</v>
+      </c>
+      <c r="D41">
+        <v>0.9941674820932015</v>
+      </c>
+      <c r="E41">
+        <v>1.004770149350313</v>
+      </c>
+      <c r="F41">
+        <v>0.9978755683139526</v>
+      </c>
+      <c r="G41">
+        <v>0.9978755683139526</v>
+      </c>
+      <c r="H41">
+        <v>1.008648351871433</v>
+      </c>
+      <c r="I41">
+        <v>1.008648351871433</v>
+      </c>
+      <c r="J41">
+        <v>0.9978169911457826</v>
+      </c>
+      <c r="K41">
+        <v>0.9978755683139526</v>
+      </c>
+      <c r="L41">
+        <v>0.9978169911457826</v>
+      </c>
+      <c r="M41">
+        <v>1.003232671508608</v>
+      </c>
+      <c r="N41">
+        <v>1.003232671508608</v>
+      </c>
+      <c r="O41">
+        <v>1.00374516412251</v>
+      </c>
+      <c r="P41">
+        <v>1.001446970443723</v>
+      </c>
+      <c r="Q41">
+        <v>1.001446970443723</v>
+      </c>
+      <c r="R41">
+        <v>1.00055411991128</v>
+      </c>
+      <c r="S41">
+        <v>1.00055411991128</v>
+      </c>
+      <c r="T41">
+        <v>1.000185435799098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.014464343323499</v>
+      </c>
+      <c r="D42">
+        <v>1.03687209109037</v>
+      </c>
+      <c r="E42">
+        <v>0.9683314060057236</v>
+      </c>
+      <c r="F42">
+        <v>1.015708235173217</v>
+      </c>
+      <c r="G42">
+        <v>1.015708235173217</v>
+      </c>
+      <c r="H42">
+        <v>0.9416819408169431</v>
+      </c>
+      <c r="I42">
+        <v>0.9416819408169431</v>
+      </c>
+      <c r="J42">
+        <v>1.01395244695216</v>
+      </c>
+      <c r="K42">
+        <v>1.015708235173217</v>
+      </c>
+      <c r="L42">
+        <v>1.01395244695216</v>
+      </c>
+      <c r="M42">
+        <v>0.9778171938845515</v>
+      </c>
+      <c r="N42">
+        <v>0.9778171938845515</v>
+      </c>
+      <c r="O42">
+        <v>0.9746552645916089</v>
+      </c>
+      <c r="P42">
+        <v>0.9904475409807735</v>
+      </c>
+      <c r="Q42">
+        <v>0.9904475409807735</v>
+      </c>
+      <c r="R42">
+        <v>0.9967627145288844</v>
+      </c>
+      <c r="S42">
+        <v>0.9967627145288844</v>
+      </c>
+      <c r="T42">
+        <v>0.9985017438936522</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001307640299948</v>
+        <v>1.000201973825122</v>
       </c>
       <c r="D3">
-        <v>0.9953896840496047</v>
+        <v>1.00058283521923</v>
       </c>
       <c r="E3">
-        <v>1.001066432697322</v>
+        <v>0.9995516782975582</v>
       </c>
       <c r="F3">
-        <v>1.001307640299948</v>
+        <v>1.000169587480294</v>
       </c>
       <c r="G3">
-        <v>1.002797874878896</v>
+        <v>1.000169587480294</v>
       </c>
       <c r="H3">
-        <v>0.9975201484286009</v>
+        <v>0.9992041046004964</v>
       </c>
       <c r="I3">
-        <v>1.00113675796516</v>
+        <v>0.9992041046004964</v>
       </c>
       <c r="J3">
-        <v>0.9953896840496047</v>
+        <v>1.000215298999056</v>
       </c>
       <c r="K3">
-        <v>1.001307640299948</v>
+        <v>1.000169587480294</v>
       </c>
       <c r="L3">
-        <v>1.001066432697322</v>
+        <v>1.000215298999056</v>
       </c>
       <c r="M3">
-        <v>0.9982280583734631</v>
+        <v>0.9997097017997763</v>
       </c>
       <c r="N3">
-        <v>0.9982280583734631</v>
+        <v>0.9997097017997763</v>
       </c>
       <c r="O3">
-        <v>0.9979920883918423</v>
+        <v>0.9996570272990368</v>
       </c>
       <c r="P3">
-        <v>0.9992545856822913</v>
+        <v>0.9998629970266154</v>
       </c>
       <c r="Q3">
-        <v>0.9992545856822913</v>
+        <v>0.9998629970266154</v>
       </c>
       <c r="R3">
-        <v>0.9997678493367055</v>
+        <v>0.999939644640035</v>
       </c>
       <c r="S3">
-        <v>0.9997678493367055</v>
+        <v>0.999939644640035</v>
       </c>
       <c r="T3">
-        <v>0.9998697563865884</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999875797369594</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002522882961214</v>
+        <v>1.003720505617115</v>
       </c>
       <c r="D4">
-        <v>0.9911007653151394</v>
+        <v>1.009455960600157</v>
       </c>
       <c r="E4">
-        <v>1.002059210636925</v>
+        <v>0.9918567738088396</v>
       </c>
       <c r="F4">
-        <v>1.002522882961214</v>
+        <v>1.004061134608312</v>
       </c>
       <c r="G4">
-        <v>1.005402908655259</v>
+        <v>1.004061134608312</v>
       </c>
       <c r="H4">
-        <v>0.9952127271496949</v>
+        <v>0.9849918222247689</v>
       </c>
       <c r="I4">
-        <v>1.002194394617832</v>
+        <v>0.9849918222247689</v>
       </c>
       <c r="J4">
-        <v>0.9911007653151394</v>
+        <v>1.003580327990471</v>
       </c>
       <c r="K4">
-        <v>1.002522882961214</v>
+        <v>1.004061134608312</v>
       </c>
       <c r="L4">
-        <v>1.002059210636925</v>
+        <v>1.003580327990471</v>
       </c>
       <c r="M4">
-        <v>0.9965799879760322</v>
+        <v>0.9942860751076198</v>
       </c>
       <c r="N4">
-        <v>0.9965799879760322</v>
+        <v>0.9942860751076198</v>
       </c>
       <c r="O4">
-        <v>0.9961242343672531</v>
+        <v>0.9934763080080264</v>
       </c>
       <c r="P4">
-        <v>0.9985609529710929</v>
+        <v>0.9975444282745173</v>
       </c>
       <c r="Q4">
-        <v>0.9985609529710929</v>
+        <v>0.9975444282745173</v>
       </c>
       <c r="R4">
-        <v>0.9995514354686232</v>
+        <v>0.999173604857966</v>
       </c>
       <c r="S4">
-        <v>0.9995514354686232</v>
+        <v>0.999173604857966</v>
       </c>
       <c r="T4">
-        <v>0.9997488148893442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.999611087474944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004804824934492</v>
+        <v>1.011652461851587</v>
       </c>
       <c r="D5">
-        <v>0.9829641557470942</v>
+        <v>1.033190027038905</v>
       </c>
       <c r="E5">
-        <v>1.003955698333054</v>
+        <v>0.9741740676296817</v>
       </c>
       <c r="F5">
-        <v>1.004804824934492</v>
+        <v>1.010103122204613</v>
       </c>
       <c r="G5">
-        <v>1.010386790092645</v>
+        <v>1.010103122204613</v>
       </c>
       <c r="H5">
-        <v>0.9908267993602869</v>
+        <v>0.9539639732997099</v>
       </c>
       <c r="I5">
-        <v>1.004203263420819</v>
+        <v>0.9539639732997099</v>
       </c>
       <c r="J5">
-        <v>0.9829641557470942</v>
+        <v>1.012290052536019</v>
       </c>
       <c r="K5">
-        <v>1.004804824934492</v>
+        <v>1.010103122204613</v>
       </c>
       <c r="L5">
-        <v>1.003955698333054</v>
+        <v>1.012290052536019</v>
       </c>
       <c r="M5">
-        <v>0.9934599270400744</v>
+        <v>0.9831270129178644</v>
       </c>
       <c r="N5">
-        <v>0.9934599270400744</v>
+        <v>0.9831270129178644</v>
       </c>
       <c r="O5">
-        <v>0.9925822178134786</v>
+        <v>0.9801426978218034</v>
       </c>
       <c r="P5">
-        <v>0.9972415596715468</v>
+        <v>0.9921190493467806</v>
       </c>
       <c r="Q5">
-        <v>0.9972415596715468</v>
+        <v>0.9921190493467806</v>
       </c>
       <c r="R5">
-        <v>0.9991323759872831</v>
+        <v>0.9966150675612387</v>
       </c>
       <c r="S5">
-        <v>0.9991323759872831</v>
+        <v>0.9966150675612387</v>
       </c>
       <c r="T5">
-        <v>0.9995235886480653</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9992289507600861</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007030988946701</v>
+        <v>1.038912927255321</v>
       </c>
       <c r="D6">
-        <v>0.9750237945211493</v>
+        <v>1.114210676106502</v>
       </c>
       <c r="E6">
-        <v>1.00580685930035</v>
+        <v>0.9134516505879309</v>
       </c>
       <c r="F6">
-        <v>1.007030988946701</v>
+        <v>1.031269553004319</v>
       </c>
       <c r="G6">
-        <v>1.015251796213469</v>
+        <v>1.031269553004319</v>
       </c>
       <c r="H6">
-        <v>0.9865463891786359</v>
+        <v>0.847179073998946</v>
       </c>
       <c r="I6">
-        <v>1.00616375338532</v>
+        <v>0.847179073998946</v>
       </c>
       <c r="J6">
-        <v>0.9750237945211493</v>
+        <v>1.042058373649161</v>
       </c>
       <c r="K6">
-        <v>1.007030988946701</v>
+        <v>1.031269553004319</v>
       </c>
       <c r="L6">
-        <v>1.00580685930035</v>
+        <v>1.042058373649161</v>
       </c>
       <c r="M6">
-        <v>0.9904153269107498</v>
+        <v>0.9446187238240537</v>
       </c>
       <c r="N6">
-        <v>0.9904153269107498</v>
+        <v>0.9446187238240537</v>
       </c>
       <c r="O6">
-        <v>0.9891256810000453</v>
+        <v>0.9342296994120126</v>
       </c>
       <c r="P6">
-        <v>0.9959538809227336</v>
+        <v>0.9735023335508087</v>
       </c>
       <c r="Q6">
-        <v>0.9959538809227336</v>
+        <v>0.9735023335508087</v>
       </c>
       <c r="R6">
-        <v>0.9987231579287255</v>
+        <v>0.9879441384141863</v>
       </c>
       <c r="S6">
-        <v>0.9987231579287255</v>
+        <v>0.9879441384141863</v>
       </c>
       <c r="T6">
-        <v>0.9993039302576042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9978470424336967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000065256986688</v>
+        <v>1.00124068672798</v>
       </c>
       <c r="D7">
-        <v>0.9996885264340043</v>
+        <v>1.003062326582502</v>
       </c>
       <c r="E7">
-        <v>1.000084874448225</v>
+        <v>0.9972926479700712</v>
       </c>
       <c r="F7">
-        <v>1.000065256986688</v>
+        <v>1.001420857348934</v>
       </c>
       <c r="G7">
-        <v>1.000230065678605</v>
+        <v>1.001420857348934</v>
       </c>
       <c r="H7">
-        <v>0.9998241491642607</v>
+        <v>0.99497053024916</v>
       </c>
       <c r="I7">
-        <v>1.000079156592177</v>
+        <v>0.99497053024916</v>
       </c>
       <c r="J7">
-        <v>0.9996885264340043</v>
+        <v>1.001166538388408</v>
       </c>
       <c r="K7">
-        <v>1.000065256986688</v>
+        <v>1.001420857348934</v>
       </c>
       <c r="L7">
-        <v>1.000084874448225</v>
+        <v>1.001166538388408</v>
       </c>
       <c r="M7">
-        <v>0.9998867004411147</v>
+        <v>0.998068534318784</v>
       </c>
       <c r="N7">
-        <v>0.9998867004411147</v>
+        <v>0.998068534318784</v>
       </c>
       <c r="O7">
-        <v>0.9998658500154968</v>
+        <v>0.9978099055358797</v>
       </c>
       <c r="P7">
-        <v>0.9999462192896393</v>
+        <v>0.999185975328834</v>
       </c>
       <c r="Q7">
-        <v>0.9999462192896393</v>
+        <v>0.999185975328834</v>
       </c>
       <c r="R7">
-        <v>0.9999759787139015</v>
+        <v>0.9997446958338591</v>
       </c>
       <c r="S7">
-        <v>0.9999759787139015</v>
+        <v>0.9997446958338591</v>
       </c>
       <c r="T7">
-        <v>0.9999953382173267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.999858931211176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000169587480294</v>
+        <v>1.000098075461255</v>
       </c>
       <c r="D8">
-        <v>0.9992041046004965</v>
+        <v>1.000266359156377</v>
       </c>
       <c r="E8">
-        <v>1.000215298999056</v>
+        <v>0.9997838018786067</v>
       </c>
       <c r="F8">
-        <v>1.000169587480294</v>
+        <v>1.000094538121234</v>
       </c>
       <c r="G8">
-        <v>1.00058283521923</v>
+        <v>1.000094538121234</v>
       </c>
       <c r="H8">
-        <v>0.9995516782975582</v>
+        <v>0.999609013479519</v>
       </c>
       <c r="I8">
-        <v>1.000201973825122</v>
+        <v>0.999609013479519</v>
       </c>
       <c r="J8">
-        <v>0.9992041046004965</v>
+        <v>1.00009952926596</v>
       </c>
       <c r="K8">
-        <v>1.000169587480294</v>
+        <v>1.000094538121234</v>
       </c>
       <c r="L8">
-        <v>1.000215298999056</v>
+        <v>1.00009952926596</v>
       </c>
       <c r="M8">
-        <v>0.9997097017997763</v>
+        <v>0.9998542713727394</v>
       </c>
       <c r="N8">
-        <v>0.9997097017997763</v>
+        <v>0.9998542713727394</v>
       </c>
       <c r="O8">
-        <v>0.9996570272990368</v>
+        <v>0.999830781541362</v>
       </c>
       <c r="P8">
-        <v>0.9998629970266153</v>
+        <v>0.9999343602889045</v>
       </c>
       <c r="Q8">
-        <v>0.9998629970266153</v>
+        <v>0.9999343602889045</v>
       </c>
       <c r="R8">
-        <v>0.9999396446400348</v>
+        <v>0.999974404746987</v>
       </c>
       <c r="S8">
-        <v>0.9999396446400348</v>
+        <v>0.999974404746987</v>
       </c>
       <c r="T8">
-        <v>0.9999875797369593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999918862271585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000245220757259</v>
+        <v>1.002194394617832</v>
       </c>
       <c r="D9">
-        <v>0.9988808486410404</v>
+        <v>1.005402908655259</v>
       </c>
       <c r="E9">
-        <v>1.000298991415224</v>
+        <v>0.9952127271496949</v>
       </c>
       <c r="F9">
-        <v>1.000245220757259</v>
+        <v>1.002522882961214</v>
       </c>
       <c r="G9">
-        <v>1.000807550247895</v>
+        <v>1.002522882961214</v>
       </c>
       <c r="H9">
-        <v>0.9993720224725388</v>
+        <v>0.9911007653151394</v>
       </c>
       <c r="I9">
-        <v>1.000283316543672</v>
+        <v>0.9911007653151394</v>
       </c>
       <c r="J9">
-        <v>0.9988808486410404</v>
+        <v>1.002059210636925</v>
       </c>
       <c r="K9">
-        <v>1.000245220757259</v>
+        <v>1.002522882961214</v>
       </c>
       <c r="L9">
-        <v>1.000298991415224</v>
+        <v>1.002059210636925</v>
       </c>
       <c r="M9">
-        <v>0.9995899200281324</v>
+        <v>0.9965799879760322</v>
       </c>
       <c r="N9">
-        <v>0.9995899200281324</v>
+        <v>0.9965799879760322</v>
       </c>
       <c r="O9">
-        <v>0.9995172875096011</v>
+        <v>0.9961242343672531</v>
       </c>
       <c r="P9">
-        <v>0.999808353604508</v>
+        <v>0.9985609529710929</v>
       </c>
       <c r="Q9">
-        <v>0.9998083536045078</v>
+        <v>0.9985609529710929</v>
       </c>
       <c r="R9">
-        <v>0.9999175703926957</v>
+        <v>0.9995514354686232</v>
       </c>
       <c r="S9">
-        <v>0.9999175703926957</v>
+        <v>0.9995514354686232</v>
       </c>
       <c r="T9">
-        <v>0.999981325012938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9997488148893442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000519897622725</v>
+        <v>1.039483072159759</v>
       </c>
       <c r="D10">
-        <v>0.9975922890858193</v>
+        <v>1.116056653534117</v>
       </c>
       <c r="E10">
-        <v>1.000647499138433</v>
+        <v>0.9121680269759005</v>
       </c>
       <c r="F10">
-        <v>1.000519897622725</v>
+        <v>1.031601392428663</v>
       </c>
       <c r="G10">
-        <v>1.001750965632209</v>
+        <v>1.031601392428663</v>
       </c>
       <c r="H10">
-        <v>0.9986462283784562</v>
+        <v>0.8449867517519559</v>
       </c>
       <c r="I10">
-        <v>1.000610299760883</v>
+        <v>0.8449867517519559</v>
       </c>
       <c r="J10">
-        <v>0.9975922890858193</v>
+        <v>1.042726588522507</v>
       </c>
       <c r="K10">
-        <v>1.000519897622725</v>
+        <v>1.031601392428663</v>
       </c>
       <c r="L10">
-        <v>1.000647499138433</v>
+        <v>1.042726588522507</v>
       </c>
       <c r="M10">
-        <v>0.9991198941121263</v>
+        <v>0.9438566701372317</v>
       </c>
       <c r="N10">
-        <v>0.9991198941121263</v>
+        <v>0.9438566701372317</v>
       </c>
       <c r="O10">
-        <v>0.9989620055342363</v>
+        <v>0.9332937890834546</v>
       </c>
       <c r="P10">
-        <v>0.9995865619489924</v>
+        <v>0.973104910901042</v>
       </c>
       <c r="Q10">
-        <v>0.9995865619489924</v>
+        <v>0.9731049109010419</v>
       </c>
       <c r="R10">
-        <v>0.9998198958674255</v>
+        <v>0.9877290312829471</v>
       </c>
       <c r="S10">
-        <v>0.9998198958674255</v>
+        <v>0.9877290312829471</v>
       </c>
       <c r="T10">
-        <v>0.9999611966030875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9978370808954836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000881626272238</v>
+        <v>1.003524584024431</v>
       </c>
       <c r="D11">
-        <v>0.995994336907705</v>
+        <v>1.00863416277381</v>
       </c>
       <c r="E11">
-        <v>1.00106796497446</v>
+        <v>0.9923147434435825</v>
       </c>
       <c r="F11">
-        <v>1.000881626272238</v>
+        <v>1.0040843039854</v>
       </c>
       <c r="G11">
-        <v>1.002883401761529</v>
+        <v>1.0040843039854</v>
       </c>
       <c r="H11">
-        <v>0.9977537600162266</v>
+        <v>0.9856943684391088</v>
       </c>
       <c r="I11">
-        <v>1.001013640229758</v>
+        <v>0.9856943684391088</v>
       </c>
       <c r="J11">
-        <v>0.995994336907705</v>
+        <v>1.003294244026075</v>
       </c>
       <c r="K11">
-        <v>1.000881626272238</v>
+        <v>1.0040843039854</v>
       </c>
       <c r="L11">
-        <v>1.00106796497446</v>
+        <v>1.003294244026075</v>
       </c>
       <c r="M11">
-        <v>0.9985311509410824</v>
+        <v>0.9944943062325918</v>
       </c>
       <c r="N11">
-        <v>0.9985311509410824</v>
+        <v>0.9944943062325918</v>
       </c>
       <c r="O11">
-        <v>0.9982720206327972</v>
+        <v>0.993767785302922</v>
       </c>
       <c r="P11">
-        <v>0.9993146427181342</v>
+        <v>0.9976909721501945</v>
       </c>
       <c r="Q11">
-        <v>0.9993146427181342</v>
+        <v>0.9976909721501945</v>
       </c>
       <c r="R11">
-        <v>0.9997063886066599</v>
+        <v>0.9992893051089958</v>
       </c>
       <c r="S11">
-        <v>0.9997063886066599</v>
+        <v>0.9992893051089958</v>
       </c>
       <c r="T11">
-        <v>0.9999324550269861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9995910677820677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9943764317764056</v>
+        <v>1.011844673789475</v>
       </c>
       <c r="D12">
-        <v>1.034154455444146</v>
+        <v>1.034887044957895</v>
       </c>
       <c r="E12">
-        <v>0.9898419146454647</v>
+        <v>0.9736445948736863</v>
       </c>
       <c r="F12">
-        <v>0.9943764317764056</v>
+        <v>1.009428410063159</v>
       </c>
       <c r="G12">
-        <v>0.9720480601021539</v>
+        <v>1.009428410063159</v>
       </c>
       <c r="H12">
-        <v>1.019834369555463</v>
+        <v>0.9535161969052628</v>
       </c>
       <c r="I12">
-        <v>0.9911639298574813</v>
+        <v>0.9535161969052628</v>
       </c>
       <c r="J12">
-        <v>1.034154455444146</v>
+        <v>1.012839028221049</v>
       </c>
       <c r="K12">
-        <v>0.9943764317764056</v>
+        <v>1.009428410063159</v>
       </c>
       <c r="L12">
-        <v>0.9898419146454647</v>
+        <v>1.012839028221049</v>
       </c>
       <c r="M12">
-        <v>1.011998185044805</v>
+        <v>0.9831776125631561</v>
       </c>
       <c r="N12">
-        <v>1.011998185044805</v>
+        <v>0.9831776125631561</v>
       </c>
       <c r="O12">
-        <v>1.014610246548358</v>
+        <v>0.9799999399999995</v>
       </c>
       <c r="P12">
-        <v>1.006124267288672</v>
+        <v>0.9919278783964905</v>
       </c>
       <c r="Q12">
-        <v>1.006124267288672</v>
+        <v>0.9919278783964905</v>
       </c>
       <c r="R12">
-        <v>1.003187308410606</v>
+        <v>0.9963030113131577</v>
       </c>
       <c r="S12">
-        <v>1.003187308410606</v>
+        <v>0.9963030113131577</v>
       </c>
       <c r="T12">
-        <v>1.000236526896852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9993599914684212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9961875359280461</v>
+        <v>0.992142029787913</v>
       </c>
       <c r="D13">
-        <v>1.010270888361227</v>
+        <v>0.9786765933700237</v>
       </c>
       <c r="E13">
-        <v>0.9981238003632598</v>
+        <v>1.017320726050111</v>
       </c>
       <c r="F13">
-        <v>0.9961875359280461</v>
+        <v>0.9924119828073844</v>
       </c>
       <c r="G13">
-        <v>0.9953656128732151</v>
+        <v>0.9924119828073844</v>
       </c>
       <c r="H13">
-        <v>1.005200883011216</v>
+        <v>1.031331893897018</v>
       </c>
       <c r="I13">
-        <v>0.9975592918069214</v>
+        <v>1.031331893897018</v>
       </c>
       <c r="J13">
-        <v>1.010270888361227</v>
+        <v>0.992030940415211</v>
       </c>
       <c r="K13">
-        <v>0.9961875359280461</v>
+        <v>0.9924119828073844</v>
       </c>
       <c r="L13">
-        <v>0.9981238003632598</v>
+        <v>0.992030940415211</v>
       </c>
       <c r="M13">
-        <v>1.004197344362243</v>
+        <v>1.011681417156114</v>
       </c>
       <c r="N13">
-        <v>1.004197344362243</v>
+        <v>1.011681417156114</v>
       </c>
       <c r="O13">
-        <v>1.004531857245234</v>
+        <v>1.013561186787447</v>
       </c>
       <c r="P13">
-        <v>1.001527408217511</v>
+        <v>1.005258272373204</v>
       </c>
       <c r="Q13">
-        <v>1.001527408217511</v>
+        <v>1.005258272373204</v>
       </c>
       <c r="R13">
-        <v>1.000192440145145</v>
+        <v>1.002046699981749</v>
       </c>
       <c r="S13">
-        <v>1.000192440145145</v>
+        <v>1.002046699981749</v>
       </c>
       <c r="T13">
-        <v>1.000451335390647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.00065236105461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9943770292357982</v>
+        <v>1.0681929</v>
       </c>
       <c r="D14">
-        <v>1.034152202205561</v>
+        <v>1.200875300000002</v>
       </c>
       <c r="E14">
-        <v>0.989842461027763</v>
+        <v>0.8482630399999994</v>
       </c>
       <c r="F14">
-        <v>0.9943770292357982</v>
+        <v>1.0542662</v>
       </c>
       <c r="G14">
-        <v>0.9720494985868959</v>
+        <v>1.0542662</v>
       </c>
       <c r="H14">
-        <v>1.019833143436857</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="I14">
-        <v>0.99116449757429</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="J14">
-        <v>1.034152202205561</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="K14">
-        <v>0.9943770292357982</v>
+        <v>1.0542662</v>
       </c>
       <c r="L14">
-        <v>0.989842461027763</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="M14">
-        <v>1.011997331616662</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="N14">
-        <v>1.011997331616662</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="O14">
-        <v>1.01460926889006</v>
+        <v>0.8848577966666661</v>
       </c>
       <c r="P14">
-        <v>1.006123897489707</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="Q14">
-        <v>1.006123897489707</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="R14">
-        <v>1.00318718042623</v>
+        <v>0.9787106875</v>
       </c>
       <c r="S14">
-        <v>1.00318718042623</v>
+        <v>0.9787106875</v>
       </c>
       <c r="T14">
-        <v>1.000236472011194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9963179650000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9961876684333796</v>
+        <v>1.0262659</v>
       </c>
       <c r="D15">
-        <v>1.01027030309366</v>
+        <v>1.0640963</v>
       </c>
       <c r="E15">
-        <v>0.998123952393022</v>
+        <v>0.9427502100000001</v>
       </c>
       <c r="F15">
-        <v>0.9961876684333796</v>
+        <v>1.0306179</v>
       </c>
       <c r="G15">
-        <v>0.9953660289563484</v>
+        <v>1.0306179</v>
       </c>
       <c r="H15">
-        <v>1.005200557745764</v>
+        <v>0.89332461</v>
       </c>
       <c r="I15">
-        <v>0.9975594406234848</v>
+        <v>0.89332461</v>
       </c>
       <c r="J15">
-        <v>1.01027030309366</v>
+        <v>1.0244749</v>
       </c>
       <c r="K15">
-        <v>0.9961876684333796</v>
+        <v>1.0306179</v>
       </c>
       <c r="L15">
-        <v>0.998123952393022</v>
+        <v>1.0244749</v>
       </c>
       <c r="M15">
-        <v>1.004197127743341</v>
+        <v>0.958899755</v>
       </c>
       <c r="N15">
-        <v>1.004197127743341</v>
+        <v>0.958899755</v>
       </c>
       <c r="O15">
-        <v>1.004531604410815</v>
+        <v>0.9535165733333334</v>
       </c>
       <c r="P15">
-        <v>1.001527307973354</v>
+        <v>0.9828058033333334</v>
       </c>
       <c r="Q15">
-        <v>1.001527307973354</v>
+        <v>0.9828058033333332</v>
       </c>
       <c r="R15">
-        <v>1.00019239808836</v>
+        <v>0.9947588274999999</v>
       </c>
       <c r="S15">
-        <v>1.00019239808836</v>
+        <v>0.9947588274999999</v>
       </c>
       <c r="T15">
-        <v>1.00045132520761</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9969216366666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999882151467632</v>
+        <v>1.0262646</v>
       </c>
       <c r="D16">
-        <v>0.9999915360004145</v>
+        <v>1.0640928</v>
       </c>
       <c r="E16">
-        <v>1.000009838532548</v>
+        <v>0.94275295</v>
       </c>
       <c r="F16">
-        <v>0.9999882151467632</v>
+        <v>1.0306169</v>
       </c>
       <c r="G16">
-        <v>1.000030352218656</v>
+        <v>1.0306169</v>
       </c>
       <c r="H16">
-        <v>0.9999903400805191</v>
+        <v>0.8933295</v>
       </c>
       <c r="I16">
-        <v>1.000003535734545</v>
+        <v>0.8933295</v>
       </c>
       <c r="J16">
-        <v>0.9999915360004145</v>
+        <v>1.0244736</v>
       </c>
       <c r="K16">
-        <v>0.9999882151467632</v>
+        <v>1.0306169</v>
       </c>
       <c r="L16">
-        <v>1.000009838532548</v>
+        <v>1.0244736</v>
       </c>
       <c r="M16">
-        <v>1.000000687266481</v>
+        <v>0.95890155</v>
       </c>
       <c r="N16">
-        <v>1.000000687266481</v>
+        <v>0.95890155</v>
       </c>
       <c r="O16">
-        <v>0.9999972382044938</v>
+        <v>0.9535186833333333</v>
       </c>
       <c r="P16">
-        <v>0.9999965298932417</v>
+        <v>0.9828066666666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999965298932416</v>
+        <v>0.9828066666666668</v>
       </c>
       <c r="R16">
-        <v>0.999994451206622</v>
+        <v>0.9947592250000001</v>
       </c>
       <c r="S16">
-        <v>0.999994451206622</v>
+        <v>0.9947592250000001</v>
       </c>
       <c r="T16">
-        <v>1.000002302952241</v>
+        <v>0.9969217250000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000094538121234</v>
+        <v>0.9796709</v>
       </c>
       <c r="D17">
-        <v>0.9996090134795191</v>
+        <v>0.95193969</v>
       </c>
       <c r="E17">
-        <v>1.00009952926596</v>
+        <v>1.0441705</v>
       </c>
       <c r="F17">
-        <v>1.000094538121234</v>
+        <v>0.97516908</v>
       </c>
       <c r="G17">
-        <v>1.000266359156377</v>
+        <v>0.97516908</v>
       </c>
       <c r="H17">
-        <v>0.9997838018786067</v>
+        <v>1.0829837</v>
       </c>
       <c r="I17">
-        <v>1.000098075461255</v>
+        <v>1.0829837</v>
       </c>
       <c r="J17">
-        <v>0.9996090134795191</v>
+        <v>0.9815235</v>
       </c>
       <c r="K17">
-        <v>1.000094538121234</v>
+        <v>0.97516908</v>
       </c>
       <c r="L17">
-        <v>1.00009952926596</v>
+        <v>0.9815235</v>
       </c>
       <c r="M17">
-        <v>0.9998542713727394</v>
+        <v>1.0322536</v>
       </c>
       <c r="N17">
-        <v>0.9998542713727394</v>
+        <v>1.0322536</v>
       </c>
       <c r="O17">
-        <v>0.999830781541362</v>
+        <v>1.0362259</v>
       </c>
       <c r="P17">
-        <v>0.9999343602889045</v>
+        <v>1.013225426666667</v>
       </c>
       <c r="Q17">
-        <v>0.9999343602889045</v>
+        <v>1.013225426666667</v>
       </c>
       <c r="R17">
-        <v>0.999974404746987</v>
+        <v>1.00371134</v>
       </c>
       <c r="S17">
-        <v>0.999974404746987</v>
+        <v>1.00371134</v>
       </c>
       <c r="T17">
-        <v>0.9999918862271585</v>
+        <v>1.002576228333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000383528063492</v>
+        <v>1.026265480821918</v>
       </c>
       <c r="D18">
-        <v>0.9985922656537026</v>
+        <v>1.064095184931507</v>
       </c>
       <c r="E18">
-        <v>1.000334382860835</v>
+        <v>0.9427511075342468</v>
       </c>
       <c r="F18">
-        <v>1.000383528063492</v>
+        <v>1.030617554794521</v>
       </c>
       <c r="G18">
-        <v>1.000882315493975</v>
+        <v>1.030617554794521</v>
       </c>
       <c r="H18">
-        <v>0.9992371198472365</v>
+        <v>0.8933262179452061</v>
       </c>
       <c r="I18">
-        <v>1.000348712530972</v>
+        <v>0.8933262179452061</v>
       </c>
       <c r="J18">
-        <v>0.9985922656537026</v>
+        <v>1.024474475342465</v>
       </c>
       <c r="K18">
-        <v>1.000383528063492</v>
+        <v>1.030617554794521</v>
       </c>
       <c r="L18">
-        <v>1.000334382860835</v>
+        <v>1.024474475342465</v>
       </c>
       <c r="M18">
-        <v>0.9994633242572688</v>
+        <v>0.9589003466438355</v>
       </c>
       <c r="N18">
-        <v>0.9994633242572688</v>
+        <v>0.9589003466438355</v>
       </c>
       <c r="O18">
-        <v>0.9993879227872581</v>
+        <v>0.9535172669406392</v>
       </c>
       <c r="P18">
-        <v>0.9997700588593433</v>
+        <v>0.9828060826940638</v>
       </c>
       <c r="Q18">
-        <v>0.9997700588593433</v>
+        <v>0.982806082694064</v>
       </c>
       <c r="R18">
-        <v>0.9999234261603805</v>
+        <v>0.9947589507191781</v>
       </c>
       <c r="S18">
-        <v>0.9999234261603805</v>
+        <v>0.9947589507191781</v>
       </c>
       <c r="T18">
-        <v>0.9999630540750356</v>
+        <v>0.9969216702283106</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000951652953056</v>
+        <v>1.011611823157895</v>
       </c>
       <c r="D19">
-        <v>0.9966693854256402</v>
+        <v>1.033069447368421</v>
       </c>
       <c r="E19">
-        <v>1.000766538970727</v>
+        <v>0.9742645636842104</v>
       </c>
       <c r="F19">
-        <v>1.000951652953056</v>
+        <v>1.010071437368421</v>
       </c>
       <c r="G19">
-        <v>1.002008852548077</v>
+        <v>1.010071437368421</v>
       </c>
       <c r="H19">
-        <v>0.9982110049623568</v>
+        <v>0.954123197368421</v>
       </c>
       <c r="I19">
-        <v>1.000820507555888</v>
+        <v>0.954123197368421</v>
       </c>
       <c r="J19">
-        <v>0.9966693854256402</v>
+        <v>1.012245740526316</v>
       </c>
       <c r="K19">
-        <v>1.000951652953056</v>
+        <v>1.010071437368421</v>
       </c>
       <c r="L19">
-        <v>1.000766538970727</v>
+        <v>1.012245740526316</v>
       </c>
       <c r="M19">
-        <v>0.9987179621981837</v>
+        <v>0.9831844689473684</v>
       </c>
       <c r="N19">
-        <v>0.9987179621981837</v>
+        <v>0.9831844689473684</v>
       </c>
       <c r="O19">
-        <v>0.998548976452908</v>
+        <v>0.9802111671929824</v>
       </c>
       <c r="P19">
-        <v>0.999462525783141</v>
+        <v>0.9921467917543859</v>
       </c>
       <c r="Q19">
-        <v>0.999462525783141</v>
+        <v>0.9921467917543859</v>
       </c>
       <c r="R19">
-        <v>0.9998348075756197</v>
+        <v>0.9966279531578947</v>
       </c>
       <c r="S19">
-        <v>0.9998348075756197</v>
+        <v>0.9966279531578947</v>
       </c>
       <c r="T19">
-        <v>0.9999046570692908</v>
+        <v>0.9992310349122806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.011611417368421</v>
+      </c>
+      <c r="D20">
+        <v>1.033068419473684</v>
+      </c>
+      <c r="E20">
+        <v>0.9742654689473684</v>
+      </c>
+      <c r="F20">
+        <v>1.010070964210527</v>
+      </c>
+      <c r="G20">
+        <v>1.010070964210527</v>
+      </c>
+      <c r="H20">
+        <v>0.9541248657894736</v>
+      </c>
+      <c r="I20">
+        <v>0.9541248657894736</v>
+      </c>
+      <c r="J20">
+        <v>1.012245349473684</v>
+      </c>
+      <c r="K20">
+        <v>1.010070964210527</v>
+      </c>
+      <c r="L20">
+        <v>1.012245349473684</v>
+      </c>
+      <c r="M20">
+        <v>0.9831851076315788</v>
+      </c>
+      <c r="N20">
+        <v>0.9831851076315788</v>
+      </c>
+      <c r="O20">
+        <v>0.980211894736842</v>
+      </c>
+      <c r="P20">
+        <v>0.9921470598245614</v>
+      </c>
+      <c r="Q20">
+        <v>0.9921470598245614</v>
+      </c>
+      <c r="R20">
+        <v>0.9966280359210526</v>
+      </c>
+      <c r="S20">
+        <v>0.9966280359210526</v>
+      </c>
+      <c r="T20">
+        <v>0.9992310808771929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9911644975742899</v>
+      </c>
+      <c r="D21">
+        <v>0.9720494985868959</v>
+      </c>
+      <c r="E21">
+        <v>1.019833143436857</v>
+      </c>
+      <c r="F21">
+        <v>0.9943770292357982</v>
+      </c>
+      <c r="G21">
+        <v>0.9943770292357982</v>
+      </c>
+      <c r="H21">
+        <v>1.034152202205561</v>
+      </c>
+      <c r="I21">
+        <v>1.034152202205561</v>
+      </c>
+      <c r="J21">
+        <v>0.989842461027763</v>
+      </c>
+      <c r="K21">
+        <v>0.9943770292357982</v>
+      </c>
+      <c r="L21">
+        <v>0.989842461027763</v>
+      </c>
+      <c r="M21">
+        <v>1.011997331616662</v>
+      </c>
+      <c r="N21">
+        <v>1.011997331616662</v>
+      </c>
+      <c r="O21">
+        <v>1.01460926889006</v>
+      </c>
+      <c r="P21">
+        <v>1.006123897489707</v>
+      </c>
+      <c r="Q21">
+        <v>1.006123897489707</v>
+      </c>
+      <c r="R21">
+        <v>1.00318718042623</v>
+      </c>
+      <c r="S21">
+        <v>1.00318718042623</v>
+      </c>
+      <c r="T21">
+        <v>1.000236472011194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9975594406234848</v>
+      </c>
+      <c r="D22">
+        <v>0.9953660289563483</v>
+      </c>
+      <c r="E22">
+        <v>1.005200557745764</v>
+      </c>
+      <c r="F22">
+        <v>0.9961876684333794</v>
+      </c>
+      <c r="G22">
+        <v>0.9961876684333794</v>
+      </c>
+      <c r="H22">
+        <v>1.01027030309366</v>
+      </c>
+      <c r="I22">
+        <v>1.01027030309366</v>
+      </c>
+      <c r="J22">
+        <v>0.998123952393022</v>
+      </c>
+      <c r="K22">
+        <v>0.9961876684333794</v>
+      </c>
+      <c r="L22">
+        <v>0.998123952393022</v>
+      </c>
+      <c r="M22">
+        <v>1.004197127743341</v>
+      </c>
+      <c r="N22">
+        <v>1.004197127743341</v>
+      </c>
+      <c r="O22">
+        <v>1.004531604410815</v>
+      </c>
+      <c r="P22">
+        <v>1.001527307973354</v>
+      </c>
+      <c r="Q22">
+        <v>1.001527307973354</v>
+      </c>
+      <c r="R22">
+        <v>1.00019239808836</v>
+      </c>
+      <c r="S22">
+        <v>1.00019239808836</v>
+      </c>
+      <c r="T22">
+        <v>1.00045132520761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9911639298574813</v>
+      </c>
+      <c r="D23">
+        <v>0.9720480601021541</v>
+      </c>
+      <c r="E23">
+        <v>1.019834369555463</v>
+      </c>
+      <c r="F23">
+        <v>0.9943764317764056</v>
+      </c>
+      <c r="G23">
+        <v>0.9943764317764056</v>
+      </c>
+      <c r="H23">
+        <v>1.034154455444146</v>
+      </c>
+      <c r="I23">
+        <v>1.034154455444146</v>
+      </c>
+      <c r="J23">
+        <v>0.9898419146454647</v>
+      </c>
+      <c r="K23">
+        <v>0.9943764317764056</v>
+      </c>
+      <c r="L23">
+        <v>0.9898419146454647</v>
+      </c>
+      <c r="M23">
+        <v>1.011998185044805</v>
+      </c>
+      <c r="N23">
+        <v>1.011998185044805</v>
+      </c>
+      <c r="O23">
+        <v>1.014610246548358</v>
+      </c>
+      <c r="P23">
+        <v>1.006124267288672</v>
+      </c>
+      <c r="Q23">
+        <v>1.006124267288672</v>
+      </c>
+      <c r="R23">
+        <v>1.003187308410606</v>
+      </c>
+      <c r="S23">
+        <v>1.003187308410606</v>
+      </c>
+      <c r="T23">
+        <v>1.000236526896852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9975592918069214</v>
+      </c>
+      <c r="D24">
+        <v>0.9953656128732151</v>
+      </c>
+      <c r="E24">
+        <v>1.005200883011216</v>
+      </c>
+      <c r="F24">
+        <v>0.9961875359280463</v>
+      </c>
+      <c r="G24">
+        <v>0.9961875359280463</v>
+      </c>
+      <c r="H24">
+        <v>1.010270888361227</v>
+      </c>
+      <c r="I24">
+        <v>1.010270888361227</v>
+      </c>
+      <c r="J24">
+        <v>0.9981238003632598</v>
+      </c>
+      <c r="K24">
+        <v>0.9961875359280463</v>
+      </c>
+      <c r="L24">
+        <v>0.9981238003632598</v>
+      </c>
+      <c r="M24">
+        <v>1.004197344362243</v>
+      </c>
+      <c r="N24">
+        <v>1.004197344362243</v>
+      </c>
+      <c r="O24">
+        <v>1.004531857245234</v>
+      </c>
+      <c r="P24">
+        <v>1.001527408217511</v>
+      </c>
+      <c r="Q24">
+        <v>1.001527408217511</v>
+      </c>
+      <c r="R24">
+        <v>1.000192440145145</v>
+      </c>
+      <c r="S24">
+        <v>1.000192440145145</v>
+      </c>
+      <c r="T24">
+        <v>1.000451335390648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9911632994094735</v>
+      </c>
+      <c r="D25">
+        <v>0.9720464816437654</v>
+      </c>
+      <c r="E25">
+        <v>1.019835755674433</v>
+      </c>
+      <c r="F25">
+        <v>0.9943757234837083</v>
+      </c>
+      <c r="G25">
+        <v>0.9943757234837083</v>
+      </c>
+      <c r="H25">
+        <v>1.034157020917296</v>
+      </c>
+      <c r="I25">
+        <v>1.034157020917296</v>
+      </c>
+      <c r="J25">
+        <v>0.9898413144222012</v>
+      </c>
+      <c r="K25">
+        <v>0.9943757234837083</v>
+      </c>
+      <c r="L25">
+        <v>0.9898413144222012</v>
+      </c>
+      <c r="M25">
+        <v>1.011999167669749</v>
+      </c>
+      <c r="N25">
+        <v>1.011999167669749</v>
+      </c>
+      <c r="O25">
+        <v>1.01461136367131</v>
+      </c>
+      <c r="P25">
+        <v>1.006124686274402</v>
+      </c>
+      <c r="Q25">
+        <v>1.006124686274402</v>
+      </c>
+      <c r="R25">
+        <v>1.003187445576728</v>
+      </c>
+      <c r="S25">
+        <v>1.003187445576728</v>
+      </c>
+      <c r="T25">
+        <v>1.00023659925848</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9975591296277325</v>
+      </c>
+      <c r="D26">
+        <v>0.9953651287184779</v>
+      </c>
+      <c r="E26">
+        <v>1.005201253793241</v>
+      </c>
+      <c r="F26">
+        <v>0.996187405494251</v>
+      </c>
+      <c r="G26">
+        <v>0.996187405494251</v>
+      </c>
+      <c r="H26">
+        <v>1.010271531119735</v>
+      </c>
+      <c r="I26">
+        <v>1.010271531119735</v>
+      </c>
+      <c r="J26">
+        <v>0.9981236204652506</v>
+      </c>
+      <c r="K26">
+        <v>0.996187405494251</v>
+      </c>
+      <c r="L26">
+        <v>0.9981236204652506</v>
+      </c>
+      <c r="M26">
+        <v>1.004197575792493</v>
+      </c>
+      <c r="N26">
+        <v>1.004197575792493</v>
+      </c>
+      <c r="O26">
+        <v>1.004532135126076</v>
+      </c>
+      <c r="P26">
+        <v>1.001527519026412</v>
+      </c>
+      <c r="Q26">
+        <v>1.001527519026412</v>
+      </c>
+      <c r="R26">
+        <v>1.000192490643372</v>
+      </c>
+      <c r="S26">
+        <v>1.000192490643372</v>
+      </c>
+      <c r="T26">
+        <v>1.000451344869781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.004147366272897</v>
+      </c>
+      <c r="D27">
+        <v>1.010626025181111</v>
+      </c>
+      <c r="E27">
+        <v>0.9909148157016981</v>
+      </c>
+      <c r="F27">
+        <v>1.004464757362321</v>
+      </c>
+      <c r="G27">
+        <v>1.004464757362321</v>
+      </c>
+      <c r="H27">
+        <v>0.9832929588389819</v>
+      </c>
+      <c r="I27">
+        <v>0.9832929588389819</v>
+      </c>
+      <c r="J27">
+        <v>1.004016754687107</v>
+      </c>
+      <c r="K27">
+        <v>1.004464757362321</v>
+      </c>
+      <c r="L27">
+        <v>1.004016754687107</v>
+      </c>
+      <c r="M27">
+        <v>0.9936548567630443</v>
+      </c>
+      <c r="N27">
+        <v>0.9936548567630443</v>
+      </c>
+      <c r="O27">
+        <v>0.9927415097425957</v>
+      </c>
+      <c r="P27">
+        <v>0.9972581569628032</v>
+      </c>
+      <c r="Q27">
+        <v>0.9972581569628032</v>
+      </c>
+      <c r="R27">
+        <v>0.9990598070626826</v>
+      </c>
+      <c r="S27">
+        <v>0.9990598070626826</v>
+      </c>
+      <c r="T27">
+        <v>0.9995771130073526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9993521201980604</v>
+      </c>
+      <c r="D28">
+        <v>0.9969971790118994</v>
+      </c>
+      <c r="E28">
+        <v>1.001540099107326</v>
+      </c>
+      <c r="F28">
+        <v>1.000285427124532</v>
+      </c>
+      <c r="G28">
+        <v>1.000285427124532</v>
+      </c>
+      <c r="H28">
+        <v>1.002245840557825</v>
+      </c>
+      <c r="I28">
+        <v>1.002245840557825</v>
+      </c>
+      <c r="J28">
+        <v>0.99896803925818</v>
+      </c>
+      <c r="K28">
+        <v>1.000285427124532</v>
+      </c>
+      <c r="L28">
+        <v>0.99896803925818</v>
+      </c>
+      <c r="M28">
+        <v>1.000606939908002</v>
+      </c>
+      <c r="N28">
+        <v>1.000606939908002</v>
+      </c>
+      <c r="O28">
+        <v>1.000917992974443</v>
+      </c>
+      <c r="P28">
+        <v>1.000499768980179</v>
+      </c>
+      <c r="Q28">
+        <v>1.000499768980179</v>
+      </c>
+      <c r="R28">
+        <v>1.000446183516267</v>
+      </c>
+      <c r="S28">
+        <v>1.000446183516267</v>
+      </c>
+      <c r="T28">
+        <v>0.9998981175429704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.986785608551549</v>
+      </c>
+      <c r="D29">
+        <v>0.9630108866588296</v>
+      </c>
+      <c r="E29">
+        <v>1.029229218937007</v>
+      </c>
+      <c r="F29">
+        <v>0.9880670334923551</v>
+      </c>
+      <c r="G29">
+        <v>0.9880670334923551</v>
+      </c>
+      <c r="H29">
+        <v>1.052382952315143</v>
+      </c>
+      <c r="I29">
+        <v>1.052382952315143</v>
+      </c>
+      <c r="J29">
+        <v>0.986258277617614</v>
+      </c>
+      <c r="K29">
+        <v>0.9880670334923551</v>
+      </c>
+      <c r="L29">
+        <v>0.986258277617614</v>
+      </c>
+      <c r="M29">
+        <v>1.019320614966379</v>
+      </c>
+      <c r="N29">
+        <v>1.019320614966379</v>
+      </c>
+      <c r="O29">
+        <v>1.022623482956588</v>
+      </c>
+      <c r="P29">
+        <v>1.008902754475038</v>
+      </c>
+      <c r="Q29">
+        <v>1.008902754475038</v>
+      </c>
+      <c r="R29">
+        <v>1.003693824229367</v>
+      </c>
+      <c r="S29">
+        <v>1.003693824229367</v>
+      </c>
+      <c r="T29">
+        <v>1.00095566292875</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.003720505617115</v>
+        <v>1.009766935405545</v>
       </c>
       <c r="D4">
-        <v>1.009455960600157</v>
+        <v>1.027944114217353</v>
       </c>
       <c r="E4">
-        <v>0.9918567738088396</v>
+        <v>0.978341833325804</v>
       </c>
       <c r="F4">
-        <v>1.004061134608312</v>
+        <v>1.008377039255956</v>
       </c>
       <c r="G4">
-        <v>1.004061134608312</v>
+        <v>1.008377039255956</v>
       </c>
       <c r="H4">
-        <v>0.9849918222247689</v>
+        <v>0.961447029688834</v>
       </c>
       <c r="I4">
-        <v>0.9849918222247689</v>
+        <v>0.961447029688834</v>
       </c>
       <c r="J4">
-        <v>1.003580327990471</v>
+        <v>1.010338911306067</v>
       </c>
       <c r="K4">
-        <v>1.004061134608312</v>
+        <v>1.008377039255956</v>
       </c>
       <c r="L4">
-        <v>1.003580327990471</v>
+        <v>1.010338911306067</v>
       </c>
       <c r="M4">
-        <v>0.9942860751076198</v>
+        <v>0.9858929704974503</v>
       </c>
       <c r="N4">
-        <v>0.9942860751076198</v>
+        <v>0.9858929704974503</v>
       </c>
       <c r="O4">
-        <v>0.9934763080080264</v>
+        <v>0.9833759247735682</v>
       </c>
       <c r="P4">
-        <v>0.9975444282745173</v>
+        <v>0.9933876600836188</v>
       </c>
       <c r="Q4">
-        <v>0.9975444282745173</v>
+        <v>0.9933876600836188</v>
       </c>
       <c r="R4">
-        <v>0.999173604857966</v>
+        <v>0.9971350048767031</v>
       </c>
       <c r="S4">
-        <v>0.999173604857966</v>
+        <v>0.9971350048767031</v>
       </c>
       <c r="T4">
-        <v>0.999611087474944</v>
+        <v>0.9993693105332596</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.011652461851587</v>
+        <v>1.006749608035177</v>
       </c>
       <c r="D5">
-        <v>1.033190027038905</v>
+        <v>1.018984812710395</v>
       </c>
       <c r="E5">
-        <v>0.9741740676296817</v>
+        <v>0.9850621461142378</v>
       </c>
       <c r="F5">
-        <v>1.010103122204613</v>
+        <v>1.00602801634765</v>
       </c>
       <c r="G5">
-        <v>1.010103122204613</v>
+        <v>1.00602801634765</v>
       </c>
       <c r="H5">
-        <v>0.9539639732997099</v>
+        <v>0.9732688322546036</v>
       </c>
       <c r="I5">
-        <v>0.9539639732997099</v>
+        <v>0.9732688322546036</v>
       </c>
       <c r="J5">
-        <v>1.012290052536019</v>
+        <v>1.007046556637662</v>
       </c>
       <c r="K5">
-        <v>1.010103122204613</v>
+        <v>1.00602801634765</v>
       </c>
       <c r="L5">
-        <v>1.012290052536019</v>
+        <v>1.007046556637662</v>
       </c>
       <c r="M5">
-        <v>0.9831270129178644</v>
+        <v>0.990157694446133</v>
       </c>
       <c r="N5">
-        <v>0.9831270129178644</v>
+        <v>0.990157694446133</v>
       </c>
       <c r="O5">
-        <v>0.9801426978218034</v>
+        <v>0.9884591783355012</v>
       </c>
       <c r="P5">
-        <v>0.9921190493467806</v>
+        <v>0.9954478017466387</v>
       </c>
       <c r="Q5">
-        <v>0.9921190493467806</v>
+        <v>0.9954478017466387</v>
       </c>
       <c r="R5">
-        <v>0.9966150675612387</v>
+        <v>0.9980928553968915</v>
       </c>
       <c r="S5">
-        <v>0.9966150675612387</v>
+        <v>0.9980928553968915</v>
       </c>
       <c r="T5">
-        <v>0.9992289507600861</v>
+        <v>0.9995233286832876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.038912927255321</v>
+        <v>1.003720505617115</v>
       </c>
       <c r="D6">
-        <v>1.114210676106502</v>
+        <v>1.009455960600157</v>
       </c>
       <c r="E6">
-        <v>0.9134516505879309</v>
+        <v>0.9918567738088396</v>
       </c>
       <c r="F6">
-        <v>1.031269553004319</v>
+        <v>1.004061134608312</v>
       </c>
       <c r="G6">
-        <v>1.031269553004319</v>
+        <v>1.004061134608312</v>
       </c>
       <c r="H6">
-        <v>0.847179073998946</v>
+        <v>0.9849918222247689</v>
       </c>
       <c r="I6">
-        <v>0.847179073998946</v>
+        <v>0.9849918222247689</v>
       </c>
       <c r="J6">
-        <v>1.042058373649161</v>
+        <v>1.003580327990471</v>
       </c>
       <c r="K6">
-        <v>1.031269553004319</v>
+        <v>1.004061134608312</v>
       </c>
       <c r="L6">
-        <v>1.042058373649161</v>
+        <v>1.003580327990471</v>
       </c>
       <c r="M6">
-        <v>0.9446187238240537</v>
+        <v>0.9942860751076198</v>
       </c>
       <c r="N6">
-        <v>0.9446187238240537</v>
+        <v>0.9942860751076198</v>
       </c>
       <c r="O6">
-        <v>0.9342296994120126</v>
+        <v>0.9934763080080264</v>
       </c>
       <c r="P6">
-        <v>0.9735023335508087</v>
+        <v>0.9975444282745173</v>
       </c>
       <c r="Q6">
-        <v>0.9735023335508087</v>
+        <v>0.9975444282745173</v>
       </c>
       <c r="R6">
-        <v>0.9879441384141863</v>
+        <v>0.999173604857966</v>
       </c>
       <c r="S6">
-        <v>0.9879441384141863</v>
+        <v>0.999173604857966</v>
       </c>
       <c r="T6">
-        <v>0.9978470424336967</v>
+        <v>0.999611087474944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.00124068672798</v>
+        <v>1.011652461851587</v>
       </c>
       <c r="D7">
-        <v>1.003062326582502</v>
+        <v>1.033190027038905</v>
       </c>
       <c r="E7">
-        <v>0.9972926479700712</v>
+        <v>0.9741740676296817</v>
       </c>
       <c r="F7">
-        <v>1.001420857348934</v>
+        <v>1.010103122204613</v>
       </c>
       <c r="G7">
-        <v>1.001420857348934</v>
+        <v>1.010103122204613</v>
       </c>
       <c r="H7">
-        <v>0.99497053024916</v>
+        <v>0.9539639732997099</v>
       </c>
       <c r="I7">
-        <v>0.99497053024916</v>
+        <v>0.9539639732997099</v>
       </c>
       <c r="J7">
-        <v>1.001166538388408</v>
+        <v>1.012290052536019</v>
       </c>
       <c r="K7">
-        <v>1.001420857348934</v>
+        <v>1.010103122204613</v>
       </c>
       <c r="L7">
-        <v>1.001166538388408</v>
+        <v>1.012290052536019</v>
       </c>
       <c r="M7">
-        <v>0.998068534318784</v>
+        <v>0.9831270129178644</v>
       </c>
       <c r="N7">
-        <v>0.998068534318784</v>
+        <v>0.9831270129178644</v>
       </c>
       <c r="O7">
-        <v>0.9978099055358797</v>
+        <v>0.9801426978218034</v>
       </c>
       <c r="P7">
-        <v>0.999185975328834</v>
+        <v>0.9921190493467806</v>
       </c>
       <c r="Q7">
-        <v>0.999185975328834</v>
+        <v>0.9921190493467806</v>
       </c>
       <c r="R7">
-        <v>0.9997446958338591</v>
+        <v>0.9966150675612387</v>
       </c>
       <c r="S7">
-        <v>0.9997446958338591</v>
+        <v>0.9966150675612387</v>
       </c>
       <c r="T7">
-        <v>0.999858931211176</v>
+        <v>0.9992289507600861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000098075461255</v>
+        <v>1.038912927255321</v>
       </c>
       <c r="D8">
-        <v>1.000266359156377</v>
+        <v>1.114210676106502</v>
       </c>
       <c r="E8">
-        <v>0.9997838018786067</v>
+        <v>0.9134516505879309</v>
       </c>
       <c r="F8">
-        <v>1.000094538121234</v>
+        <v>1.031269553004319</v>
       </c>
       <c r="G8">
-        <v>1.000094538121234</v>
+        <v>1.031269553004319</v>
       </c>
       <c r="H8">
-        <v>0.999609013479519</v>
+        <v>0.847179073998946</v>
       </c>
       <c r="I8">
-        <v>0.999609013479519</v>
+        <v>0.847179073998946</v>
       </c>
       <c r="J8">
-        <v>1.00009952926596</v>
+        <v>1.042058373649161</v>
       </c>
       <c r="K8">
-        <v>1.000094538121234</v>
+        <v>1.031269553004319</v>
       </c>
       <c r="L8">
-        <v>1.00009952926596</v>
+        <v>1.042058373649161</v>
       </c>
       <c r="M8">
-        <v>0.9998542713727394</v>
+        <v>0.9446187238240537</v>
       </c>
       <c r="N8">
-        <v>0.9998542713727394</v>
+        <v>0.9446187238240537</v>
       </c>
       <c r="O8">
-        <v>0.999830781541362</v>
+        <v>0.9342296994120126</v>
       </c>
       <c r="P8">
-        <v>0.9999343602889045</v>
+        <v>0.9735023335508087</v>
       </c>
       <c r="Q8">
-        <v>0.9999343602889045</v>
+        <v>0.9735023335508087</v>
       </c>
       <c r="R8">
-        <v>0.999974404746987</v>
+        <v>0.9879441384141863</v>
       </c>
       <c r="S8">
-        <v>0.999974404746987</v>
+        <v>0.9879441384141863</v>
       </c>
       <c r="T8">
-        <v>0.9999918862271585</v>
+        <v>0.9978470424336967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002194394617832</v>
+        <v>1.00124068672798</v>
       </c>
       <c r="D9">
-        <v>1.005402908655259</v>
+        <v>1.003062326582502</v>
       </c>
       <c r="E9">
-        <v>0.9952127271496949</v>
+        <v>0.9972926479700712</v>
       </c>
       <c r="F9">
-        <v>1.002522882961214</v>
+        <v>1.001420857348934</v>
       </c>
       <c r="G9">
-        <v>1.002522882961214</v>
+        <v>1.001420857348934</v>
       </c>
       <c r="H9">
-        <v>0.9911007653151394</v>
+        <v>0.99497053024916</v>
       </c>
       <c r="I9">
-        <v>0.9911007653151394</v>
+        <v>0.99497053024916</v>
       </c>
       <c r="J9">
-        <v>1.002059210636925</v>
+        <v>1.001166538388408</v>
       </c>
       <c r="K9">
-        <v>1.002522882961214</v>
+        <v>1.001420857348934</v>
       </c>
       <c r="L9">
-        <v>1.002059210636925</v>
+        <v>1.001166538388408</v>
       </c>
       <c r="M9">
-        <v>0.9965799879760322</v>
+        <v>0.998068534318784</v>
       </c>
       <c r="N9">
-        <v>0.9965799879760322</v>
+        <v>0.998068534318784</v>
       </c>
       <c r="O9">
-        <v>0.9961242343672531</v>
+        <v>0.9978099055358797</v>
       </c>
       <c r="P9">
-        <v>0.9985609529710929</v>
+        <v>0.999185975328834</v>
       </c>
       <c r="Q9">
-        <v>0.9985609529710929</v>
+        <v>0.999185975328834</v>
       </c>
       <c r="R9">
-        <v>0.9995514354686232</v>
+        <v>0.9997446958338591</v>
       </c>
       <c r="S9">
-        <v>0.9995514354686232</v>
+        <v>0.9997446958338591</v>
       </c>
       <c r="T9">
-        <v>0.9997488148893442</v>
+        <v>0.999858931211176</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.039483072159759</v>
+        <v>1.000098075461255</v>
       </c>
       <c r="D10">
-        <v>1.116056653534117</v>
+        <v>1.000266359156377</v>
       </c>
       <c r="E10">
-        <v>0.9121680269759005</v>
+        <v>0.9997838018786067</v>
       </c>
       <c r="F10">
-        <v>1.031601392428663</v>
+        <v>1.000094538121234</v>
       </c>
       <c r="G10">
-        <v>1.031601392428663</v>
+        <v>1.000094538121234</v>
       </c>
       <c r="H10">
-        <v>0.8449867517519559</v>
+        <v>0.999609013479519</v>
       </c>
       <c r="I10">
-        <v>0.8449867517519559</v>
+        <v>0.999609013479519</v>
       </c>
       <c r="J10">
-        <v>1.042726588522507</v>
+        <v>1.00009952926596</v>
       </c>
       <c r="K10">
-        <v>1.031601392428663</v>
+        <v>1.000094538121234</v>
       </c>
       <c r="L10">
-        <v>1.042726588522507</v>
+        <v>1.00009952926596</v>
       </c>
       <c r="M10">
-        <v>0.9438566701372317</v>
+        <v>0.9998542713727394</v>
       </c>
       <c r="N10">
-        <v>0.9438566701372317</v>
+        <v>0.9998542713727394</v>
       </c>
       <c r="O10">
-        <v>0.9332937890834546</v>
+        <v>0.999830781541362</v>
       </c>
       <c r="P10">
-        <v>0.973104910901042</v>
+        <v>0.9999343602889045</v>
       </c>
       <c r="Q10">
-        <v>0.9731049109010419</v>
+        <v>0.9999343602889045</v>
       </c>
       <c r="R10">
-        <v>0.9877290312829471</v>
+        <v>0.999974404746987</v>
       </c>
       <c r="S10">
-        <v>0.9877290312829471</v>
+        <v>0.999974404746987</v>
       </c>
       <c r="T10">
-        <v>0.9978370808954836</v>
+        <v>0.9999918862271585</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003524584024431</v>
+        <v>1.002194394617832</v>
       </c>
       <c r="D11">
-        <v>1.00863416277381</v>
+        <v>1.005402908655259</v>
       </c>
       <c r="E11">
-        <v>0.9923147434435825</v>
+        <v>0.9952127271496949</v>
       </c>
       <c r="F11">
-        <v>1.0040843039854</v>
+        <v>1.002522882961214</v>
       </c>
       <c r="G11">
-        <v>1.0040843039854</v>
+        <v>1.002522882961214</v>
       </c>
       <c r="H11">
-        <v>0.9856943684391088</v>
+        <v>0.9911007653151394</v>
       </c>
       <c r="I11">
-        <v>0.9856943684391088</v>
+        <v>0.9911007653151394</v>
       </c>
       <c r="J11">
-        <v>1.003294244026075</v>
+        <v>1.002059210636925</v>
       </c>
       <c r="K11">
-        <v>1.0040843039854</v>
+        <v>1.002522882961214</v>
       </c>
       <c r="L11">
-        <v>1.003294244026075</v>
+        <v>1.002059210636925</v>
       </c>
       <c r="M11">
-        <v>0.9944943062325918</v>
+        <v>0.9965799879760322</v>
       </c>
       <c r="N11">
-        <v>0.9944943062325918</v>
+        <v>0.9965799879760322</v>
       </c>
       <c r="O11">
-        <v>0.993767785302922</v>
+        <v>0.9961242343672531</v>
       </c>
       <c r="P11">
-        <v>0.9976909721501945</v>
+        <v>0.9985609529710929</v>
       </c>
       <c r="Q11">
-        <v>0.9976909721501945</v>
+        <v>0.9985609529710929</v>
       </c>
       <c r="R11">
-        <v>0.9992893051089958</v>
+        <v>0.9995514354686232</v>
       </c>
       <c r="S11">
-        <v>0.9992893051089958</v>
+        <v>0.9995514354686232</v>
       </c>
       <c r="T11">
-        <v>0.9995910677820677</v>
+        <v>0.9997488148893442</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.011844673789475</v>
+        <v>1.039483072159759</v>
       </c>
       <c r="D12">
-        <v>1.034887044957895</v>
+        <v>1.116056653534117</v>
       </c>
       <c r="E12">
-        <v>0.9736445948736863</v>
+        <v>0.9121680269759005</v>
       </c>
       <c r="F12">
-        <v>1.009428410063159</v>
+        <v>1.031601392428663</v>
       </c>
       <c r="G12">
-        <v>1.009428410063159</v>
+        <v>1.031601392428663</v>
       </c>
       <c r="H12">
-        <v>0.9535161969052628</v>
+        <v>0.8449867517519559</v>
       </c>
       <c r="I12">
-        <v>0.9535161969052628</v>
+        <v>0.8449867517519559</v>
       </c>
       <c r="J12">
-        <v>1.012839028221049</v>
+        <v>1.042726588522507</v>
       </c>
       <c r="K12">
-        <v>1.009428410063159</v>
+        <v>1.031601392428663</v>
       </c>
       <c r="L12">
-        <v>1.012839028221049</v>
+        <v>1.042726588522507</v>
       </c>
       <c r="M12">
-        <v>0.9831776125631561</v>
+        <v>0.9438566701372317</v>
       </c>
       <c r="N12">
-        <v>0.9831776125631561</v>
+        <v>0.9438566701372317</v>
       </c>
       <c r="O12">
-        <v>0.9799999399999995</v>
+        <v>0.9332937890834546</v>
       </c>
       <c r="P12">
-        <v>0.9919278783964905</v>
+        <v>0.973104910901042</v>
       </c>
       <c r="Q12">
-        <v>0.9919278783964905</v>
+        <v>0.9731049109010419</v>
       </c>
       <c r="R12">
-        <v>0.9963030113131577</v>
+        <v>0.9877290312829471</v>
       </c>
       <c r="S12">
-        <v>0.9963030113131577</v>
+        <v>0.9877290312829471</v>
       </c>
       <c r="T12">
-        <v>0.9993599914684212</v>
+        <v>0.9978370808954836</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.992142029787913</v>
+        <v>1.003524584024431</v>
       </c>
       <c r="D13">
-        <v>0.9786765933700237</v>
+        <v>1.00863416277381</v>
       </c>
       <c r="E13">
-        <v>1.017320726050111</v>
+        <v>0.9923147434435825</v>
       </c>
       <c r="F13">
-        <v>0.9924119828073844</v>
+        <v>1.0040843039854</v>
       </c>
       <c r="G13">
-        <v>0.9924119828073844</v>
+        <v>1.0040843039854</v>
       </c>
       <c r="H13">
-        <v>1.031331893897018</v>
+        <v>0.9856943684391088</v>
       </c>
       <c r="I13">
-        <v>1.031331893897018</v>
+        <v>0.9856943684391088</v>
       </c>
       <c r="J13">
-        <v>0.992030940415211</v>
+        <v>1.003294244026075</v>
       </c>
       <c r="K13">
-        <v>0.9924119828073844</v>
+        <v>1.0040843039854</v>
       </c>
       <c r="L13">
-        <v>0.992030940415211</v>
+        <v>1.003294244026075</v>
       </c>
       <c r="M13">
-        <v>1.011681417156114</v>
+        <v>0.9944943062325918</v>
       </c>
       <c r="N13">
-        <v>1.011681417156114</v>
+        <v>0.9944943062325918</v>
       </c>
       <c r="O13">
-        <v>1.013561186787447</v>
+        <v>0.993767785302922</v>
       </c>
       <c r="P13">
-        <v>1.005258272373204</v>
+        <v>0.9976909721501945</v>
       </c>
       <c r="Q13">
-        <v>1.005258272373204</v>
+        <v>0.9976909721501945</v>
       </c>
       <c r="R13">
-        <v>1.002046699981749</v>
+        <v>0.9992893051089958</v>
       </c>
       <c r="S13">
-        <v>1.002046699981749</v>
+        <v>0.9992893051089958</v>
       </c>
       <c r="T13">
-        <v>1.00065236105461</v>
+        <v>0.9995910677820677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0681929</v>
+        <v>1.011844673789475</v>
       </c>
       <c r="D14">
-        <v>1.200875300000002</v>
+        <v>1.034887044957895</v>
       </c>
       <c r="E14">
-        <v>0.8482630399999994</v>
+        <v>0.9736445948736863</v>
       </c>
       <c r="F14">
-        <v>1.0542662</v>
+        <v>1.009428410063159</v>
       </c>
       <c r="G14">
-        <v>1.0542662</v>
+        <v>1.009428410063159</v>
       </c>
       <c r="H14">
-        <v>0.7323862499999992</v>
+        <v>0.9535161969052628</v>
       </c>
       <c r="I14">
-        <v>0.7323862499999992</v>
+        <v>0.9535161969052628</v>
       </c>
       <c r="J14">
-        <v>1.073924099999999</v>
+        <v>1.012839028221049</v>
       </c>
       <c r="K14">
-        <v>1.0542662</v>
+        <v>1.009428410063159</v>
       </c>
       <c r="L14">
-        <v>1.073924099999999</v>
+        <v>1.012839028221049</v>
       </c>
       <c r="M14">
-        <v>0.9031551749999993</v>
+        <v>0.9831776125631561</v>
       </c>
       <c r="N14">
-        <v>0.9031551749999993</v>
+        <v>0.9831776125631561</v>
       </c>
       <c r="O14">
-        <v>0.8848577966666661</v>
+        <v>0.9799999399999995</v>
       </c>
       <c r="P14">
-        <v>0.9535255166666664</v>
+        <v>0.9919278783964905</v>
       </c>
       <c r="Q14">
-        <v>0.9535255166666664</v>
+        <v>0.9919278783964905</v>
       </c>
       <c r="R14">
-        <v>0.9787106875</v>
+        <v>0.9963030113131577</v>
       </c>
       <c r="S14">
-        <v>0.9787106875</v>
+        <v>0.9963030113131577</v>
       </c>
       <c r="T14">
-        <v>0.9963179650000001</v>
+        <v>0.9993599914684212</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0262659</v>
+        <v>0.992142029787913</v>
       </c>
       <c r="D15">
-        <v>1.0640963</v>
+        <v>0.9786765933700237</v>
       </c>
       <c r="E15">
-        <v>0.9427502100000001</v>
+        <v>1.017320726050111</v>
       </c>
       <c r="F15">
-        <v>1.0306179</v>
+        <v>0.9924119828073844</v>
       </c>
       <c r="G15">
-        <v>1.0306179</v>
+        <v>0.9924119828073844</v>
       </c>
       <c r="H15">
-        <v>0.89332461</v>
+        <v>1.031331893897018</v>
       </c>
       <c r="I15">
-        <v>0.89332461</v>
+        <v>1.031331893897018</v>
       </c>
       <c r="J15">
-        <v>1.0244749</v>
+        <v>0.992030940415211</v>
       </c>
       <c r="K15">
-        <v>1.0306179</v>
+        <v>0.9924119828073844</v>
       </c>
       <c r="L15">
-        <v>1.0244749</v>
+        <v>0.992030940415211</v>
       </c>
       <c r="M15">
-        <v>0.958899755</v>
+        <v>1.011681417156114</v>
       </c>
       <c r="N15">
-        <v>0.958899755</v>
+        <v>1.011681417156114</v>
       </c>
       <c r="O15">
-        <v>0.9535165733333334</v>
+        <v>1.013561186787447</v>
       </c>
       <c r="P15">
-        <v>0.9828058033333334</v>
+        <v>1.005258272373204</v>
       </c>
       <c r="Q15">
-        <v>0.9828058033333332</v>
+        <v>1.005258272373204</v>
       </c>
       <c r="R15">
-        <v>0.9947588274999999</v>
+        <v>1.002046699981749</v>
       </c>
       <c r="S15">
-        <v>0.9947588274999999</v>
+        <v>1.002046699981749</v>
       </c>
       <c r="T15">
-        <v>0.9969216366666668</v>
+        <v>1.00065236105461</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0262646</v>
+        <v>1.0681929</v>
       </c>
       <c r="D16">
-        <v>1.0640928</v>
+        <v>1.200875300000002</v>
       </c>
       <c r="E16">
-        <v>0.94275295</v>
+        <v>0.8482630399999994</v>
       </c>
       <c r="F16">
-        <v>1.0306169</v>
+        <v>1.0542662</v>
       </c>
       <c r="G16">
-        <v>1.0306169</v>
+        <v>1.0542662</v>
       </c>
       <c r="H16">
-        <v>0.8933295</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="I16">
-        <v>0.8933295</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="J16">
-        <v>1.0244736</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="K16">
-        <v>1.0306169</v>
+        <v>1.0542662</v>
       </c>
       <c r="L16">
-        <v>1.0244736</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="M16">
-        <v>0.95890155</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="N16">
-        <v>0.95890155</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="O16">
-        <v>0.9535186833333333</v>
+        <v>0.8848577966666661</v>
       </c>
       <c r="P16">
-        <v>0.9828066666666667</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="Q16">
-        <v>0.9828066666666668</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="R16">
-        <v>0.9947592250000001</v>
+        <v>0.9787106875</v>
       </c>
       <c r="S16">
-        <v>0.9947592250000001</v>
+        <v>0.9787106875</v>
       </c>
       <c r="T16">
-        <v>0.9969217250000001</v>
+        <v>0.9963179650000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9796709</v>
+        <v>1.0262659</v>
       </c>
       <c r="D17">
-        <v>0.95193969</v>
+        <v>1.0640963</v>
       </c>
       <c r="E17">
-        <v>1.0441705</v>
+        <v>0.9427502100000001</v>
       </c>
       <c r="F17">
-        <v>0.97516908</v>
+        <v>1.0306179</v>
       </c>
       <c r="G17">
-        <v>0.97516908</v>
+        <v>1.0306179</v>
       </c>
       <c r="H17">
-        <v>1.0829837</v>
+        <v>0.89332461</v>
       </c>
       <c r="I17">
-        <v>1.0829837</v>
+        <v>0.89332461</v>
       </c>
       <c r="J17">
-        <v>0.9815235</v>
+        <v>1.0244749</v>
       </c>
       <c r="K17">
-        <v>0.97516908</v>
+        <v>1.0306179</v>
       </c>
       <c r="L17">
-        <v>0.9815235</v>
+        <v>1.0244749</v>
       </c>
       <c r="M17">
-        <v>1.0322536</v>
+        <v>0.958899755</v>
       </c>
       <c r="N17">
-        <v>1.0322536</v>
+        <v>0.958899755</v>
       </c>
       <c r="O17">
-        <v>1.0362259</v>
+        <v>0.9535165733333334</v>
       </c>
       <c r="P17">
-        <v>1.013225426666667</v>
+        <v>0.9828058033333334</v>
       </c>
       <c r="Q17">
-        <v>1.013225426666667</v>
+        <v>0.9828058033333332</v>
       </c>
       <c r="R17">
-        <v>1.00371134</v>
+        <v>0.9947588274999999</v>
       </c>
       <c r="S17">
-        <v>1.00371134</v>
+        <v>0.9947588274999999</v>
       </c>
       <c r="T17">
-        <v>1.002576228333333</v>
+        <v>0.9969216366666668</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.026265480821918</v>
+        <v>1.0262646</v>
       </c>
       <c r="D18">
-        <v>1.064095184931507</v>
+        <v>1.0640928</v>
       </c>
       <c r="E18">
-        <v>0.9427511075342468</v>
+        <v>0.94275295</v>
       </c>
       <c r="F18">
-        <v>1.030617554794521</v>
+        <v>1.0306169</v>
       </c>
       <c r="G18">
-        <v>1.030617554794521</v>
+        <v>1.0306169</v>
       </c>
       <c r="H18">
-        <v>0.8933262179452061</v>
+        <v>0.8933295</v>
       </c>
       <c r="I18">
-        <v>0.8933262179452061</v>
+        <v>0.8933295</v>
       </c>
       <c r="J18">
-        <v>1.024474475342465</v>
+        <v>1.0244736</v>
       </c>
       <c r="K18">
-        <v>1.030617554794521</v>
+        <v>1.0306169</v>
       </c>
       <c r="L18">
-        <v>1.024474475342465</v>
+        <v>1.0244736</v>
       </c>
       <c r="M18">
-        <v>0.9589003466438355</v>
+        <v>0.95890155</v>
       </c>
       <c r="N18">
-        <v>0.9589003466438355</v>
+        <v>0.95890155</v>
       </c>
       <c r="O18">
-        <v>0.9535172669406392</v>
+        <v>0.9535186833333333</v>
       </c>
       <c r="P18">
-        <v>0.9828060826940638</v>
+        <v>0.9828066666666667</v>
       </c>
       <c r="Q18">
-        <v>0.982806082694064</v>
+        <v>0.9828066666666668</v>
       </c>
       <c r="R18">
-        <v>0.9947589507191781</v>
+        <v>0.9947592250000001</v>
       </c>
       <c r="S18">
-        <v>0.9947589507191781</v>
+        <v>0.9947592250000001</v>
       </c>
       <c r="T18">
-        <v>0.9969216702283106</v>
+        <v>0.9969217250000001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.011611823157895</v>
+        <v>0.9796709</v>
       </c>
       <c r="D19">
-        <v>1.033069447368421</v>
+        <v>0.95193969</v>
       </c>
       <c r="E19">
-        <v>0.9742645636842104</v>
+        <v>1.0441705</v>
       </c>
       <c r="F19">
-        <v>1.010071437368421</v>
+        <v>0.97516908</v>
       </c>
       <c r="G19">
-        <v>1.010071437368421</v>
+        <v>0.97516908</v>
       </c>
       <c r="H19">
-        <v>0.954123197368421</v>
+        <v>1.0829837</v>
       </c>
       <c r="I19">
-        <v>0.954123197368421</v>
+        <v>1.0829837</v>
       </c>
       <c r="J19">
-        <v>1.012245740526316</v>
+        <v>0.9815235</v>
       </c>
       <c r="K19">
-        <v>1.010071437368421</v>
+        <v>0.97516908</v>
       </c>
       <c r="L19">
-        <v>1.012245740526316</v>
+        <v>0.9815235</v>
       </c>
       <c r="M19">
-        <v>0.9831844689473684</v>
+        <v>1.0322536</v>
       </c>
       <c r="N19">
-        <v>0.9831844689473684</v>
+        <v>1.0322536</v>
       </c>
       <c r="O19">
-        <v>0.9802111671929824</v>
+        <v>1.0362259</v>
       </c>
       <c r="P19">
-        <v>0.9921467917543859</v>
+        <v>1.013225426666667</v>
       </c>
       <c r="Q19">
-        <v>0.9921467917543859</v>
+        <v>1.013225426666667</v>
       </c>
       <c r="R19">
-        <v>0.9966279531578947</v>
+        <v>1.00371134</v>
       </c>
       <c r="S19">
-        <v>0.9966279531578947</v>
+        <v>1.00371134</v>
       </c>
       <c r="T19">
-        <v>0.9992310349122806</v>
+        <v>1.002576228333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.011611417368421</v>
+        <v>1.026265480821918</v>
       </c>
       <c r="D20">
-        <v>1.033068419473684</v>
+        <v>1.064095184931507</v>
       </c>
       <c r="E20">
-        <v>0.9742654689473684</v>
+        <v>0.9427511075342468</v>
       </c>
       <c r="F20">
-        <v>1.010070964210527</v>
+        <v>1.030617554794521</v>
       </c>
       <c r="G20">
-        <v>1.010070964210527</v>
+        <v>1.030617554794521</v>
       </c>
       <c r="H20">
-        <v>0.9541248657894736</v>
+        <v>0.8933262179452061</v>
       </c>
       <c r="I20">
-        <v>0.9541248657894736</v>
+        <v>0.8933262179452061</v>
       </c>
       <c r="J20">
-        <v>1.012245349473684</v>
+        <v>1.024474475342465</v>
       </c>
       <c r="K20">
-        <v>1.010070964210527</v>
+        <v>1.030617554794521</v>
       </c>
       <c r="L20">
-        <v>1.012245349473684</v>
+        <v>1.024474475342465</v>
       </c>
       <c r="M20">
-        <v>0.9831851076315788</v>
+        <v>0.9589003466438355</v>
       </c>
       <c r="N20">
-        <v>0.9831851076315788</v>
+        <v>0.9589003466438355</v>
       </c>
       <c r="O20">
-        <v>0.980211894736842</v>
+        <v>0.9535172669406392</v>
       </c>
       <c r="P20">
-        <v>0.9921470598245614</v>
+        <v>0.9828060826940638</v>
       </c>
       <c r="Q20">
-        <v>0.9921470598245614</v>
+        <v>0.982806082694064</v>
       </c>
       <c r="R20">
-        <v>0.9966280359210526</v>
+        <v>0.9947589507191781</v>
       </c>
       <c r="S20">
-        <v>0.9966280359210526</v>
+        <v>0.9947589507191781</v>
       </c>
       <c r="T20">
-        <v>0.9992310808771929</v>
+        <v>0.9969216702283106</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9911644975742899</v>
+        <v>1.011611823157895</v>
       </c>
       <c r="D21">
-        <v>0.9720494985868959</v>
+        <v>1.033069447368421</v>
       </c>
       <c r="E21">
-        <v>1.019833143436857</v>
+        <v>0.9742645636842104</v>
       </c>
       <c r="F21">
-        <v>0.9943770292357982</v>
+        <v>1.010071437368421</v>
       </c>
       <c r="G21">
-        <v>0.9943770292357982</v>
+        <v>1.010071437368421</v>
       </c>
       <c r="H21">
-        <v>1.034152202205561</v>
+        <v>0.954123197368421</v>
       </c>
       <c r="I21">
-        <v>1.034152202205561</v>
+        <v>0.954123197368421</v>
       </c>
       <c r="J21">
-        <v>0.989842461027763</v>
+        <v>1.012245740526316</v>
       </c>
       <c r="K21">
-        <v>0.9943770292357982</v>
+        <v>1.010071437368421</v>
       </c>
       <c r="L21">
-        <v>0.989842461027763</v>
+        <v>1.012245740526316</v>
       </c>
       <c r="M21">
-        <v>1.011997331616662</v>
+        <v>0.9831844689473684</v>
       </c>
       <c r="N21">
-        <v>1.011997331616662</v>
+        <v>0.9831844689473684</v>
       </c>
       <c r="O21">
-        <v>1.01460926889006</v>
+        <v>0.9802111671929824</v>
       </c>
       <c r="P21">
-        <v>1.006123897489707</v>
+        <v>0.9921467917543859</v>
       </c>
       <c r="Q21">
-        <v>1.006123897489707</v>
+        <v>0.9921467917543859</v>
       </c>
       <c r="R21">
-        <v>1.00318718042623</v>
+        <v>0.9966279531578947</v>
       </c>
       <c r="S21">
-        <v>1.00318718042623</v>
+        <v>0.9966279531578947</v>
       </c>
       <c r="T21">
-        <v>1.000236472011194</v>
+        <v>0.9992310349122806</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9975594406234848</v>
+        <v>1.011611417368421</v>
       </c>
       <c r="D22">
-        <v>0.9953660289563483</v>
+        <v>1.033068419473684</v>
       </c>
       <c r="E22">
-        <v>1.005200557745764</v>
+        <v>0.9742654689473684</v>
       </c>
       <c r="F22">
-        <v>0.9961876684333794</v>
+        <v>1.010070964210527</v>
       </c>
       <c r="G22">
-        <v>0.9961876684333794</v>
+        <v>1.010070964210527</v>
       </c>
       <c r="H22">
-        <v>1.01027030309366</v>
+        <v>0.9541248657894736</v>
       </c>
       <c r="I22">
-        <v>1.01027030309366</v>
+        <v>0.9541248657894736</v>
       </c>
       <c r="J22">
-        <v>0.998123952393022</v>
+        <v>1.012245349473684</v>
       </c>
       <c r="K22">
-        <v>0.9961876684333794</v>
+        <v>1.010070964210527</v>
       </c>
       <c r="L22">
-        <v>0.998123952393022</v>
+        <v>1.012245349473684</v>
       </c>
       <c r="M22">
-        <v>1.004197127743341</v>
+        <v>0.9831851076315788</v>
       </c>
       <c r="N22">
-        <v>1.004197127743341</v>
+        <v>0.9831851076315788</v>
       </c>
       <c r="O22">
-        <v>1.004531604410815</v>
+        <v>0.980211894736842</v>
       </c>
       <c r="P22">
-        <v>1.001527307973354</v>
+        <v>0.9921470598245614</v>
       </c>
       <c r="Q22">
-        <v>1.001527307973354</v>
+        <v>0.9921470598245614</v>
       </c>
       <c r="R22">
-        <v>1.00019239808836</v>
+        <v>0.9966280359210526</v>
       </c>
       <c r="S22">
-        <v>1.00019239808836</v>
+        <v>0.9966280359210526</v>
       </c>
       <c r="T22">
-        <v>1.00045132520761</v>
+        <v>0.9992310808771929</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9911639298574813</v>
+        <v>0.9911644975742899</v>
       </c>
       <c r="D23">
-        <v>0.9720480601021541</v>
+        <v>0.9720494985868959</v>
       </c>
       <c r="E23">
-        <v>1.019834369555463</v>
+        <v>1.019833143436857</v>
       </c>
       <c r="F23">
-        <v>0.9943764317764056</v>
+        <v>0.9943770292357982</v>
       </c>
       <c r="G23">
-        <v>0.9943764317764056</v>
+        <v>0.9943770292357982</v>
       </c>
       <c r="H23">
-        <v>1.034154455444146</v>
+        <v>1.034152202205561</v>
       </c>
       <c r="I23">
-        <v>1.034154455444146</v>
+        <v>1.034152202205561</v>
       </c>
       <c r="J23">
-        <v>0.9898419146454647</v>
+        <v>0.989842461027763</v>
       </c>
       <c r="K23">
-        <v>0.9943764317764056</v>
+        <v>0.9943770292357982</v>
       </c>
       <c r="L23">
-        <v>0.9898419146454647</v>
+        <v>0.989842461027763</v>
       </c>
       <c r="M23">
-        <v>1.011998185044805</v>
+        <v>1.011997331616662</v>
       </c>
       <c r="N23">
-        <v>1.011998185044805</v>
+        <v>1.011997331616662</v>
       </c>
       <c r="O23">
-        <v>1.014610246548358</v>
+        <v>1.01460926889006</v>
       </c>
       <c r="P23">
-        <v>1.006124267288672</v>
+        <v>1.006123897489707</v>
       </c>
       <c r="Q23">
-        <v>1.006124267288672</v>
+        <v>1.006123897489707</v>
       </c>
       <c r="R23">
-        <v>1.003187308410606</v>
+        <v>1.00318718042623</v>
       </c>
       <c r="S23">
-        <v>1.003187308410606</v>
+        <v>1.00318718042623</v>
       </c>
       <c r="T23">
-        <v>1.000236526896852</v>
+        <v>1.000236472011194</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9975592918069214</v>
+        <v>0.9975594406234848</v>
       </c>
       <c r="D24">
-        <v>0.9953656128732151</v>
+        <v>0.9953660289563483</v>
       </c>
       <c r="E24">
-        <v>1.005200883011216</v>
+        <v>1.005200557745764</v>
       </c>
       <c r="F24">
-        <v>0.9961875359280463</v>
+        <v>0.9961876684333794</v>
       </c>
       <c r="G24">
-        <v>0.9961875359280463</v>
+        <v>0.9961876684333794</v>
       </c>
       <c r="H24">
-        <v>1.010270888361227</v>
+        <v>1.01027030309366</v>
       </c>
       <c r="I24">
-        <v>1.010270888361227</v>
+        <v>1.01027030309366</v>
       </c>
       <c r="J24">
-        <v>0.9981238003632598</v>
+        <v>0.998123952393022</v>
       </c>
       <c r="K24">
-        <v>0.9961875359280463</v>
+        <v>0.9961876684333794</v>
       </c>
       <c r="L24">
-        <v>0.9981238003632598</v>
+        <v>0.998123952393022</v>
       </c>
       <c r="M24">
-        <v>1.004197344362243</v>
+        <v>1.004197127743341</v>
       </c>
       <c r="N24">
-        <v>1.004197344362243</v>
+        <v>1.004197127743341</v>
       </c>
       <c r="O24">
-        <v>1.004531857245234</v>
+        <v>1.004531604410815</v>
       </c>
       <c r="P24">
-        <v>1.001527408217511</v>
+        <v>1.001527307973354</v>
       </c>
       <c r="Q24">
-        <v>1.001527408217511</v>
+        <v>1.001527307973354</v>
       </c>
       <c r="R24">
-        <v>1.000192440145145</v>
+        <v>1.00019239808836</v>
       </c>
       <c r="S24">
-        <v>1.000192440145145</v>
+        <v>1.00019239808836</v>
       </c>
       <c r="T24">
-        <v>1.000451335390648</v>
+        <v>1.00045132520761</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9911632994094735</v>
+        <v>0.9911639298574813</v>
       </c>
       <c r="D25">
-        <v>0.9720464816437654</v>
+        <v>0.9720480601021541</v>
       </c>
       <c r="E25">
-        <v>1.019835755674433</v>
+        <v>1.019834369555463</v>
       </c>
       <c r="F25">
-        <v>0.9943757234837083</v>
+        <v>0.9943764317764056</v>
       </c>
       <c r="G25">
-        <v>0.9943757234837083</v>
+        <v>0.9943764317764056</v>
       </c>
       <c r="H25">
-        <v>1.034157020917296</v>
+        <v>1.034154455444146</v>
       </c>
       <c r="I25">
-        <v>1.034157020917296</v>
+        <v>1.034154455444146</v>
       </c>
       <c r="J25">
-        <v>0.9898413144222012</v>
+        <v>0.9898419146454647</v>
       </c>
       <c r="K25">
-        <v>0.9943757234837083</v>
+        <v>0.9943764317764056</v>
       </c>
       <c r="L25">
-        <v>0.9898413144222012</v>
+        <v>0.9898419146454647</v>
       </c>
       <c r="M25">
-        <v>1.011999167669749</v>
+        <v>1.011998185044805</v>
       </c>
       <c r="N25">
-        <v>1.011999167669749</v>
+        <v>1.011998185044805</v>
       </c>
       <c r="O25">
-        <v>1.01461136367131</v>
+        <v>1.014610246548358</v>
       </c>
       <c r="P25">
-        <v>1.006124686274402</v>
+        <v>1.006124267288672</v>
       </c>
       <c r="Q25">
-        <v>1.006124686274402</v>
+        <v>1.006124267288672</v>
       </c>
       <c r="R25">
-        <v>1.003187445576728</v>
+        <v>1.003187308410606</v>
       </c>
       <c r="S25">
-        <v>1.003187445576728</v>
+        <v>1.003187308410606</v>
       </c>
       <c r="T25">
-        <v>1.00023659925848</v>
+        <v>1.000236526896852</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9975591296277325</v>
+        <v>0.9975592918069214</v>
       </c>
       <c r="D26">
-        <v>0.9953651287184779</v>
+        <v>0.9953656128732151</v>
       </c>
       <c r="E26">
-        <v>1.005201253793241</v>
+        <v>1.005200883011216</v>
       </c>
       <c r="F26">
-        <v>0.996187405494251</v>
+        <v>0.9961875359280463</v>
       </c>
       <c r="G26">
-        <v>0.996187405494251</v>
+        <v>0.9961875359280463</v>
       </c>
       <c r="H26">
-        <v>1.010271531119735</v>
+        <v>1.010270888361227</v>
       </c>
       <c r="I26">
-        <v>1.010271531119735</v>
+        <v>1.010270888361227</v>
       </c>
       <c r="J26">
-        <v>0.9981236204652506</v>
+        <v>0.9981238003632598</v>
       </c>
       <c r="K26">
-        <v>0.996187405494251</v>
+        <v>0.9961875359280463</v>
       </c>
       <c r="L26">
-        <v>0.9981236204652506</v>
+        <v>0.9981238003632598</v>
       </c>
       <c r="M26">
-        <v>1.004197575792493</v>
+        <v>1.004197344362243</v>
       </c>
       <c r="N26">
-        <v>1.004197575792493</v>
+        <v>1.004197344362243</v>
       </c>
       <c r="O26">
-        <v>1.004532135126076</v>
+        <v>1.004531857245234</v>
       </c>
       <c r="P26">
-        <v>1.001527519026412</v>
+        <v>1.001527408217511</v>
       </c>
       <c r="Q26">
-        <v>1.001527519026412</v>
+        <v>1.001527408217511</v>
       </c>
       <c r="R26">
-        <v>1.000192490643372</v>
+        <v>1.000192440145145</v>
       </c>
       <c r="S26">
-        <v>1.000192490643372</v>
+        <v>1.000192440145145</v>
       </c>
       <c r="T26">
-        <v>1.000451344869781</v>
+        <v>1.000451335390648</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.004147366272897</v>
+        <v>0.9911632994094735</v>
       </c>
       <c r="D27">
-        <v>1.010626025181111</v>
+        <v>0.9720464816437654</v>
       </c>
       <c r="E27">
-        <v>0.9909148157016981</v>
+        <v>1.019835755674433</v>
       </c>
       <c r="F27">
-        <v>1.004464757362321</v>
+        <v>0.9943757234837083</v>
       </c>
       <c r="G27">
-        <v>1.004464757362321</v>
+        <v>0.9943757234837083</v>
       </c>
       <c r="H27">
-        <v>0.9832929588389819</v>
+        <v>1.034157020917296</v>
       </c>
       <c r="I27">
-        <v>0.9832929588389819</v>
+        <v>1.034157020917296</v>
       </c>
       <c r="J27">
-        <v>1.004016754687107</v>
+        <v>0.9898413144222012</v>
       </c>
       <c r="K27">
-        <v>1.004464757362321</v>
+        <v>0.9943757234837083</v>
       </c>
       <c r="L27">
-        <v>1.004016754687107</v>
+        <v>0.9898413144222012</v>
       </c>
       <c r="M27">
-        <v>0.9936548567630443</v>
+        <v>1.011999167669749</v>
       </c>
       <c r="N27">
-        <v>0.9936548567630443</v>
+        <v>1.011999167669749</v>
       </c>
       <c r="O27">
-        <v>0.9927415097425957</v>
+        <v>1.01461136367131</v>
       </c>
       <c r="P27">
-        <v>0.9972581569628032</v>
+        <v>1.006124686274402</v>
       </c>
       <c r="Q27">
-        <v>0.9972581569628032</v>
+        <v>1.006124686274402</v>
       </c>
       <c r="R27">
-        <v>0.9990598070626826</v>
+        <v>1.003187445576728</v>
       </c>
       <c r="S27">
-        <v>0.9990598070626826</v>
+        <v>1.003187445576728</v>
       </c>
       <c r="T27">
-        <v>0.9995771130073526</v>
+        <v>1.00023659925848</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9993521201980604</v>
+        <v>0.9975591296277325</v>
       </c>
       <c r="D28">
-        <v>0.9969971790118994</v>
+        <v>0.9953651287184779</v>
       </c>
       <c r="E28">
-        <v>1.001540099107326</v>
+        <v>1.005201253793241</v>
       </c>
       <c r="F28">
-        <v>1.000285427124532</v>
+        <v>0.996187405494251</v>
       </c>
       <c r="G28">
-        <v>1.000285427124532</v>
+        <v>0.996187405494251</v>
       </c>
       <c r="H28">
-        <v>1.002245840557825</v>
+        <v>1.010271531119735</v>
       </c>
       <c r="I28">
-        <v>1.002245840557825</v>
+        <v>1.010271531119735</v>
       </c>
       <c r="J28">
-        <v>0.99896803925818</v>
+        <v>0.9981236204652506</v>
       </c>
       <c r="K28">
-        <v>1.000285427124532</v>
+        <v>0.996187405494251</v>
       </c>
       <c r="L28">
-        <v>0.99896803925818</v>
+        <v>0.9981236204652506</v>
       </c>
       <c r="M28">
-        <v>1.000606939908002</v>
+        <v>1.004197575792493</v>
       </c>
       <c r="N28">
-        <v>1.000606939908002</v>
+        <v>1.004197575792493</v>
       </c>
       <c r="O28">
-        <v>1.000917992974443</v>
+        <v>1.004532135126076</v>
       </c>
       <c r="P28">
-        <v>1.000499768980179</v>
+        <v>1.001527519026412</v>
       </c>
       <c r="Q28">
-        <v>1.000499768980179</v>
+        <v>1.001527519026412</v>
       </c>
       <c r="R28">
-        <v>1.000446183516267</v>
+        <v>1.000192490643372</v>
       </c>
       <c r="S28">
-        <v>1.000446183516267</v>
+        <v>1.000192490643372</v>
       </c>
       <c r="T28">
-        <v>0.9998981175429704</v>
+        <v>1.000451344869781</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.004147366272897</v>
+      </c>
+      <c r="D29">
+        <v>1.010626025181111</v>
+      </c>
+      <c r="E29">
+        <v>0.9909148157016981</v>
+      </c>
+      <c r="F29">
+        <v>1.004464757362321</v>
+      </c>
+      <c r="G29">
+        <v>1.004464757362321</v>
+      </c>
+      <c r="H29">
+        <v>0.9832929588389819</v>
+      </c>
+      <c r="I29">
+        <v>0.9832929588389819</v>
+      </c>
+      <c r="J29">
+        <v>1.004016754687107</v>
+      </c>
+      <c r="K29">
+        <v>1.004464757362321</v>
+      </c>
+      <c r="L29">
+        <v>1.004016754687107</v>
+      </c>
+      <c r="M29">
+        <v>0.9936548567630443</v>
+      </c>
+      <c r="N29">
+        <v>0.9936548567630443</v>
+      </c>
+      <c r="O29">
+        <v>0.9927415097425957</v>
+      </c>
+      <c r="P29">
+        <v>0.9972581569628032</v>
+      </c>
+      <c r="Q29">
+        <v>0.9972581569628032</v>
+      </c>
+      <c r="R29">
+        <v>0.9990598070626826</v>
+      </c>
+      <c r="S29">
+        <v>0.9990598070626826</v>
+      </c>
+      <c r="T29">
+        <v>0.9995771130073526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9993521201980604</v>
+      </c>
+      <c r="D30">
+        <v>0.9969971790118994</v>
+      </c>
+      <c r="E30">
+        <v>1.001540099107326</v>
+      </c>
+      <c r="F30">
+        <v>1.000285427124532</v>
+      </c>
+      <c r="G30">
+        <v>1.000285427124532</v>
+      </c>
+      <c r="H30">
+        <v>1.002245840557825</v>
+      </c>
+      <c r="I30">
+        <v>1.002245840557825</v>
+      </c>
+      <c r="J30">
+        <v>0.99896803925818</v>
+      </c>
+      <c r="K30">
+        <v>1.000285427124532</v>
+      </c>
+      <c r="L30">
+        <v>0.99896803925818</v>
+      </c>
+      <c r="M30">
+        <v>1.000606939908002</v>
+      </c>
+      <c r="N30">
+        <v>1.000606939908002</v>
+      </c>
+      <c r="O30">
+        <v>1.000917992974443</v>
+      </c>
+      <c r="P30">
+        <v>1.000499768980179</v>
+      </c>
+      <c r="Q30">
+        <v>1.000499768980179</v>
+      </c>
+      <c r="R30">
+        <v>1.000446183516267</v>
+      </c>
+      <c r="S30">
+        <v>1.000446183516267</v>
+      </c>
+      <c r="T30">
+        <v>0.9998981175429704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.986785608551549</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9630108866588296</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.029229218937007</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9880670334923551</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9880670334923551</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.052382952315143</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.052382952315143</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.986258277617614</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9880670334923551</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.986258277617614</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.019320614966379</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.019320614966379</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.022623482956588</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.008902754475038</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.008902754475038</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.003693824229367</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.003693824229367</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.00095566292875</v>
       </c>
     </row>
